--- a/data/typhoid_vaccine_study_data.xlsx
+++ b/data/typhoid_vaccine_study_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/famulare/git/famulare/typhoid-immune-dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30918C48-684D-EE47-9A94-B7433CED349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F11104D-8755-EB4C-B109-F9242FA8F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="840" windowWidth="19540" windowHeight="17440" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="310">
   <si>
     <t>study</t>
   </si>
@@ -487,6 +487,9 @@
     <t>endpoint is a composite estimate from the original trial and followup period IRR as explained in the paper</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>timepoint_months_authors</t>
   </si>
   <si>
@@ -832,6 +835,9 @@
     <t>treatment_day42_seroconversion_percent</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>booster</t>
   </si>
   <si>
@@ -950,6 +956,21 @@
   </si>
   <si>
     <t>to_check</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>design_group</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -1358,24 +1379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E976F573-8D26-E847-8FB6-13AA5974A482}">
-  <dimension ref="A1:AG66"/>
+  <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="10.83203125" style="1"/>
-    <col min="23" max="24" width="10.83203125" style="2"/>
-    <col min="25" max="28" width="10.83203125" style="3"/>
-    <col min="29" max="31" width="10.83203125" style="6"/>
-    <col min="32" max="32" width="10.83203125" style="3"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="21" width="10.83203125" style="1"/>
+    <col min="24" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="29" width="10.83203125" style="3"/>
+    <col min="30" max="32" width="10.83203125" style="6"/>
+    <col min="33" max="33" width="10.83203125" style="3"/>
+    <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,10 +1419,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1416,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>57</v>
@@ -1434,34 +1455,34 @@
         <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" t="s">
-        <v>291</v>
+        <v>149</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="V1" t="s">
-        <v>292</v>
-      </c>
-      <c r="W1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="W1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>157</v>
@@ -1469,14 +1490,17 @@
       <c r="AE1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>10122019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -1499,10 +1523,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1">
         <v>15</v>
@@ -1517,10 +1541,10 @@
         <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>58</v>
@@ -1535,46 +1559,49 @@
         <v>25</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U2">
+        <v>297</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>18</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="2">
         <v>30882</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <v>30685</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>29</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1615,7 @@
         <v>10122019</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -1597,10 +1624,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1">
         <v>15</v>
@@ -1615,10 +1642,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>58</v>
@@ -1633,46 +1660,49 @@
         <v>25</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U3">
+        <v>297</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>18</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>155841</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>155448</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1716,7 @@
         <v>10122019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -1695,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" s="1">
         <v>15</v>
@@ -1713,10 +1743,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>58</v>
@@ -1731,46 +1761,49 @@
         <v>25</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U4">
+        <v>297</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>18</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>135110</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>134835</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1817,7 @@
         <v>10122019</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -1793,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -1811,10 +1844,10 @@
         <v>17</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>64</v>
@@ -1829,40 +1862,43 @@
         <v>25</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U5">
+        <v>297</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>18</v>
       </c>
-      <c r="Y5" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1912,7 @@
         <v>10122019</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1885,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>59</v>
@@ -1903,10 +1939,10 @@
         <v>18</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>64</v>
@@ -1921,40 +1957,43 @@
         <v>25</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U6">
+        <v>297</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6">
         <v>1</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>18</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>13</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>7861</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +2007,7 @@
         <v>10122019</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1977,10 +2016,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>59</v>
@@ -1995,10 +2034,10 @@
         <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>64</v>
@@ -2013,40 +2052,43 @@
         <v>25</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U7">
+        <v>297</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7">
         <v>1</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>18</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>8</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AD7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AE7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2102,7 @@
         <v>10122019</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -2069,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>59</v>
@@ -2087,10 +2129,10 @@
         <v>17</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>64</v>
@@ -2105,40 +2147,43 @@
         <v>25</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U8">
+        <v>297</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>18</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AD8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AE8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2197,7 @@
         <v>10122019</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -2161,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>59</v>
@@ -2179,10 +2224,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>64</v>
@@ -2197,40 +2242,43 @@
         <v>25</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U9">
+        <v>297</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>18</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2292,7 @@
         <v>10122019</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -2253,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
@@ -2271,10 +2319,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>64</v>
@@ -2289,40 +2337,43 @@
         <v>25</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U10">
+        <v>297</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10">
         <v>1</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>18</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AD10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AE10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2387,7 @@
         <v>10122019</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -2345,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>63</v>
@@ -2363,10 +2414,10 @@
         <v>17</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>64</v>
@@ -2381,40 +2432,43 @@
         <v>25</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U11">
+        <v>297</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>18</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AD11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AE11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AE11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2482,7 @@
         <v>10122019</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -2437,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>63</v>
@@ -2455,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>64</v>
@@ -2473,40 +2527,43 @@
         <v>25</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U12">
+        <v>297</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12">
         <v>1</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>18</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AD12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AE12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2577,7 @@
         <v>10122019</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>63</v>
@@ -2547,10 +2604,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>64</v>
@@ -2565,40 +2622,43 @@
         <v>25</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U13">
+        <v>297</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>18</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AE13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AE13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -2609,10 +2669,10 @@
         <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2621,13 +2681,13 @@
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>11</v>
@@ -2639,10 +2699,10 @@
         <v>17</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>58</v>
@@ -2657,46 +2717,49 @@
         <v>25</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U14">
+        <v>166</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>24</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <v>27042</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <v>26599</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>32</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>197</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>34855</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>34590</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AD14" s="6">
         <v>84</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AE14" s="6">
         <v>74</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AF14" s="6">
         <v>90</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -2707,10 +2770,10 @@
         <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2719,13 +2782,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>11</v>
@@ -2734,13 +2797,13 @@
         <v>21</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>64</v>
@@ -2755,49 +2818,52 @@
         <v>25</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U15">
+        <v>165</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15">
         <v>25</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>60</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <v>21329</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>22451</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>45</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>14</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>46392</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>45161</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AD15" s="6">
         <v>-210</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AE15" s="6">
         <v>-529</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AF15" s="6">
         <v>-53</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>95</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2808,10 +2874,10 @@
         <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -2820,13 +2886,13 @@
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>11</v>
@@ -2838,10 +2904,10 @@
         <v>17</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>64</v>
@@ -2856,31 +2922,34 @@
         <v>25</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16">
+        <v>165</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16">
         <v>25</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>60</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AD16" s="6">
         <v>50</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AE16" s="6">
         <v>-13</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AF16" s="6">
         <v>78</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG16" s="3">
         <v>95</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AH16" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -2891,10 +2960,10 @@
         <v>142</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -2903,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>11</v>
@@ -2921,10 +2990,10 @@
         <v>17</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>64</v>
@@ -2939,28 +3008,31 @@
         <v>143</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U17">
+        <v>165</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="V17">
         <v>25</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>60</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AD17" s="6">
         <v>55</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AE17" s="6">
         <v>36</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AF17" s="6">
         <v>68</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -2971,10 +3043,10 @@
         <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -2983,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>11</v>
@@ -3001,10 +3073,10 @@
         <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>64</v>
@@ -3019,28 +3091,31 @@
         <v>143</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U18">
+        <v>160</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18">
         <v>1</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>12</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AD18" s="6">
         <v>93</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AE18" s="6">
         <v>86</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AF18" s="6">
         <v>96</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3051,10 +3126,10 @@
         <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -3063,13 +3138,13 @@
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>11</v>
@@ -3081,10 +3156,10 @@
         <v>17</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>64</v>
@@ -3099,28 +3174,31 @@
         <v>143</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U19">
+        <v>161</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19">
         <v>13</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>24</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AD19" s="6">
         <v>89</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AE19" s="6">
         <v>78</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AF19" s="6">
         <v>94</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AG19" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3131,10 +3209,10 @@
         <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -3143,13 +3221,13 @@
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>11</v>
@@ -3161,10 +3239,10 @@
         <v>17</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>64</v>
@@ -3179,28 +3257,31 @@
         <v>143</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U20">
+        <v>162</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20">
         <v>37</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>48</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AD20" s="6">
         <v>77</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AE20" s="6">
         <v>43</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AF20" s="6">
         <v>91</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3211,10 +3292,10 @@
         <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -3223,13 +3304,13 @@
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>11</v>
@@ -3241,10 +3322,10 @@
         <v>17</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>64</v>
@@ -3259,28 +3340,31 @@
         <v>143</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U21">
+        <v>163</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V21">
         <v>49</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>60</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AD21" s="6">
         <v>39</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AE21" s="6">
         <v>-23</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AF21" s="6">
         <v>70</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
@@ -3291,10 +3375,10 @@
         <v>142</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -3303,10 +3387,10 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>98</v>
@@ -3321,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>64</v>
@@ -3339,28 +3423,31 @@
         <v>143</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U22">
+        <v>165</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22">
         <v>25</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>60</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AD22" s="6">
         <v>24</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AE22" s="6">
         <v>-29</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AF22" s="6">
         <v>55</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -3371,10 +3458,10 @@
         <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -3383,10 +3470,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>98</v>
@@ -3401,10 +3488,10 @@
         <v>17</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>64</v>
@@ -3419,28 +3506,31 @@
         <v>143</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U23">
+        <v>166</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>24</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AD23" s="6">
         <v>85</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AE23" s="6">
         <v>60</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AF23" s="6">
         <v>94</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
@@ -3451,10 +3541,10 @@
         <v>142</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -3463,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>62</v>
@@ -3481,10 +3571,10 @@
         <v>17</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>64</v>
@@ -3499,28 +3589,31 @@
         <v>143</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U24">
+        <v>165</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V24">
         <v>25</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>60</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AD24" s="6">
         <v>59</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AE24" s="6">
         <v>12</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AF24" s="6">
         <v>81</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>140</v>
       </c>
@@ -3531,10 +3624,10 @@
         <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -3543,10 +3636,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
@@ -3561,10 +3654,10 @@
         <v>17</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>64</v>
@@ -3579,28 +3672,31 @@
         <v>143</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U25">
+        <v>166</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>24</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AD25" s="6">
         <v>87</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AE25" s="6">
         <v>62</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AF25" s="6">
         <v>95</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AG25" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
@@ -3611,10 +3707,10 @@
         <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -3623,13 +3719,13 @@
         <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>11</v>
@@ -3641,10 +3737,10 @@
         <v>17</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>64</v>
@@ -3659,28 +3755,31 @@
         <v>143</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U26">
+        <v>165</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V26">
         <v>25</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>60</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AD26" s="6">
         <v>74</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AE26" s="6">
         <v>41</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AF26" s="6">
         <v>89</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
@@ -3691,10 +3790,10 @@
         <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -3703,13 +3802,13 @@
         <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>11</v>
@@ -3721,10 +3820,10 @@
         <v>17</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>64</v>
@@ -3739,28 +3838,31 @@
         <v>143</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U27">
+        <v>166</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27">
         <v>1</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>24</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AD27" s="6">
         <v>80</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AE27" s="6">
         <v>54</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AF27" s="6">
         <v>92</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>140</v>
       </c>
@@ -3771,10 +3873,10 @@
         <v>142</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -3783,10 +3885,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>53</v>
@@ -3801,10 +3903,10 @@
         <v>17</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>64</v>
@@ -3819,28 +3921,31 @@
         <v>143</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U28">
+        <v>165</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28">
         <v>25</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>60</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AD28" s="6">
         <v>85</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AE28" s="6">
         <v>51</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AF28" s="6">
         <v>95</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG28" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -3851,10 +3956,10 @@
         <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -3863,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>53</v>
@@ -3881,10 +3986,10 @@
         <v>17</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>64</v>
@@ -3899,48 +4004,51 @@
         <v>143</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29">
+        <v>166</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29">
         <v>1</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>24</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AD29" s="6">
         <v>96</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AE29" s="6">
         <v>67</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AF29" s="6">
         <v>99</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AG29" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30">
         <v>2017</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -3949,7 +4057,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>21</v>
@@ -3958,10 +4066,10 @@
         <v>17</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>58</v>
@@ -3970,66 +4078,69 @@
         <v>145</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V30">
         <v>1</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W30" s="2">
+      <c r="X30" s="2">
         <v>37</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <v>31</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Z30" s="3">
         <v>13</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="AA30" s="3">
         <v>24</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AD30" s="6">
         <v>54.6</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AE30" s="6">
         <v>26.8</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AF30" s="6">
         <v>71.8</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AG30" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31">
         <v>2017</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I31">
         <v>18</v>
@@ -4038,7 +4149,7 @@
         <v>60</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>21</v>
@@ -4047,10 +4158,10 @@
         <v>17</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>58</v>
@@ -4059,66 +4170,69 @@
         <v>145</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V31">
         <v>1</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W31" s="2">
+      <c r="X31" s="2">
         <v>35</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
         <v>31</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Z31" s="3">
         <v>13</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="AA31" s="3">
         <v>24</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AD31" s="6">
         <v>52</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AE31" s="6">
         <v>23.2</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AF31" s="6">
         <v>70</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AG31" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32">
         <v>2017</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I32">
         <v>18</v>
@@ -4127,7 +4241,7 @@
         <v>60</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>21</v>
@@ -4136,10 +4250,10 @@
         <v>17</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>64</v>
@@ -4148,61 +4262,64 @@
         <v>144</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V32">
         <v>1</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W32" s="2">
+      <c r="X32" s="2">
         <v>37</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
         <v>31</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>13</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>24</v>
       </c>
-      <c r="AC32" s="6">
-        <f>(1-(Y32/W32)/(Z32/X32))*100</f>
+      <c r="AD32" s="6">
+        <f>(1-(Z32/X32)/(AA32/Y32))*100</f>
         <v>54.617117117117118</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C33">
         <v>2017</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I33">
         <v>18</v>
@@ -4211,7 +4328,7 @@
         <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>21</v>
@@ -4220,10 +4337,10 @@
         <v>17</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>64</v>
@@ -4232,61 +4349,64 @@
         <v>144</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V33">
         <v>1</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W33" s="2">
+      <c r="X33" s="2">
         <v>35</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
         <v>31</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>24</v>
       </c>
-      <c r="AC33" s="6">
-        <f>(1-(Y33/W33)/(Z33/X33))*100</f>
+      <c r="AD33" s="6">
+        <f>(1-(Z33/X33)/(AA33/Y33))*100</f>
         <v>59.404761904761905</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C34">
         <v>2017</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I34">
         <v>18</v>
@@ -4295,7 +4415,7 @@
         <v>60</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>21</v>
@@ -4304,10 +4424,10 @@
         <v>17</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>64</v>
@@ -4316,61 +4436,64 @@
         <v>144</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V34">
         <v>1</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W34" s="2">
+      <c r="X34" s="2">
         <v>37</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <v>31</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>22</v>
       </c>
       <c r="Z34" s="3">
         <v>22</v>
       </c>
-      <c r="AC34" s="6">
-        <f t="shared" ref="AC34:AC37" si="0">(1-(Y34/W34)/(Z34/X34))*100</f>
+      <c r="AA34" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD34" s="6">
+        <f t="shared" ref="AD34:AD37" si="0">(1-(Z34/X34)/(AA34/Y34))*100</f>
         <v>16.216216216216218</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AG34" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C35">
         <v>2017</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I35">
         <v>18</v>
@@ -4379,7 +4502,7 @@
         <v>60</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>21</v>
@@ -4388,10 +4511,10 @@
         <v>17</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>64</v>
@@ -4400,61 +4523,64 @@
         <v>144</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V35">
         <v>1</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W35" s="2">
+      <c r="X35" s="2">
         <v>35</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
         <v>31</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>21</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22</v>
       </c>
-      <c r="AC35" s="6">
+      <c r="AD35" s="6">
         <f t="shared" si="0"/>
         <v>15.454545454545466</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I36">
         <v>18</v>
@@ -4463,7 +4589,7 @@
         <v>60</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>21</v>
@@ -4472,10 +4598,10 @@
         <v>17</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>64</v>
@@ -4484,61 +4610,64 @@
         <v>145</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V36">
         <v>1</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W36" s="2">
+      <c r="X36" s="2">
         <v>13</v>
       </c>
-      <c r="X36" s="2">
+      <c r="Y36" s="2">
         <v>24</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Z36" s="3">
         <v>12</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="AA36" s="3">
         <v>19</v>
       </c>
-      <c r="AC36" s="6">
+      <c r="AD36" s="6">
         <f t="shared" si="0"/>
         <v>-16.599190283400823</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C37">
         <v>2017</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I37">
         <v>18</v>
@@ -4547,7 +4676,7 @@
         <v>60</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>21</v>
@@ -4556,10 +4685,10 @@
         <v>17</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>64</v>
@@ -4568,61 +4697,64 @@
         <v>145</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V37">
         <v>1</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W37" s="2">
+      <c r="X37" s="2">
         <v>13</v>
       </c>
-      <c r="X37" s="2">
+      <c r="Y37" s="2">
         <v>24</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Z37" s="3">
         <v>10</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="AA37" s="3">
         <v>19</v>
       </c>
-      <c r="AC37" s="6">
+      <c r="AD37" s="6">
         <f t="shared" si="0"/>
         <v>2.8340080971659853</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AG37" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38">
         <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I38">
         <v>18</v>
@@ -4631,19 +4763,19 @@
         <v>60</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>64</v>
@@ -4652,57 +4784,60 @@
         <v>145</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V38">
         <v>1</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>31</v>
       </c>
-      <c r="AC38" s="6">
+      <c r="AD38" s="6">
         <v>0.4</v>
       </c>
-      <c r="AD38" s="6">
+      <c r="AE38" s="6">
         <v>0.05</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AF38" s="6">
         <v>22.7</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AG38" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39">
         <v>2017</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I39">
         <v>18</v>
@@ -4711,19 +4846,19 @@
         <v>60</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>64</v>
@@ -4732,57 +4867,60 @@
         <v>145</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V39">
         <v>1</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W39" s="2">
+      <c r="X39" s="2">
         <v>37</v>
       </c>
-      <c r="AC39" s="6">
+      <c r="AD39" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD39" s="6">
+      <c r="AE39" s="6">
         <v>0.05</v>
       </c>
-      <c r="AE39" s="6">
+      <c r="AF39" s="6">
         <v>1.2</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AG39" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C40">
         <v>2017</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I40">
         <v>18</v>
@@ -4791,19 +4929,19 @@
         <v>60</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>64</v>
@@ -4812,57 +4950,60 @@
         <v>145</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V40">
         <v>1</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W40" s="2">
+      <c r="X40" s="2">
         <v>35</v>
       </c>
-      <c r="AC40" s="6">
+      <c r="AD40" s="6">
         <v>0.1</v>
       </c>
-      <c r="AD40" s="6">
+      <c r="AE40" s="6">
         <v>0.05</v>
       </c>
-      <c r="AE40" s="6">
+      <c r="AF40" s="6">
         <v>5.6</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AG40" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I41">
         <v>18</v>
@@ -4871,7 +5012,7 @@
         <v>60</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>21</v>
@@ -4880,10 +5021,10 @@
         <v>17</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>58</v>
@@ -4892,61 +5033,64 @@
         <v>145</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V41">
         <v>1</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W41" s="2">
+      <c r="X41" s="2">
         <v>13</v>
       </c>
-      <c r="X41" s="2">
+      <c r="Y41" s="2">
         <v>24</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24</v>
       </c>
-      <c r="AC41" s="6">
-        <f t="shared" ref="AC41:AC42" si="1">(1-(Y41/W41)/(Z41/X41))*100</f>
+      <c r="AD41" s="6">
+        <f t="shared" ref="AD41:AD42" si="1">(1-(Z41/X41)/(AA41/Y41))*100</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I42">
         <v>18</v>
@@ -4955,7 +5099,7 @@
         <v>60</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>21</v>
@@ -4964,10 +5108,10 @@
         <v>17</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>58</v>
@@ -4976,61 +5120,64 @@
         <v>145</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V42">
         <v>1</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W42" s="2">
+      <c r="X42" s="2">
         <v>13</v>
       </c>
-      <c r="X42" s="2">
+      <c r="Y42" s="2">
         <v>24</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>13</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>24</v>
       </c>
-      <c r="AC42" s="6">
+      <c r="AD42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C43">
         <v>2017</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I43">
         <v>18</v>
@@ -5039,7 +5186,7 @@
         <v>60</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
@@ -5048,10 +5195,10 @@
         <v>17</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>64</v>
@@ -5060,61 +5207,64 @@
         <v>145</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V43">
         <v>1</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W43" s="2">
+      <c r="X43" s="2">
         <v>13</v>
       </c>
-      <c r="X43" s="2">
+      <c r="Y43" s="2">
         <v>24</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>14</v>
       </c>
-      <c r="AC43" s="6">
-        <f>(1-(Y43/W43)/(Z43/X43))*100</f>
+      <c r="AD43" s="6">
+        <f>(1-(Z43/X43)/(AA43/Y43))*100</f>
         <v>60.439560439560445</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C44">
         <v>2017</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I44">
         <v>18</v>
@@ -5123,7 +5273,7 @@
         <v>60</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>21</v>
@@ -5132,10 +5282,10 @@
         <v>17</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>64</v>
@@ -5144,61 +5294,64 @@
         <v>145</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V44">
         <v>1</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W44" s="2">
+      <c r="X44" s="2">
         <v>13</v>
       </c>
-      <c r="X44" s="2">
+      <c r="Y44" s="2">
         <v>24</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>14</v>
       </c>
-      <c r="AC44" s="6">
-        <f>(1-(Y44/W44)/(Z44/X44))*100</f>
+      <c r="AD44" s="6">
+        <f>(1-(Z44/X44)/(AA44/Y44))*100</f>
         <v>20.879120879120883</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" t="s">
         <v>247</v>
-      </c>
-      <c r="B45" t="s">
-        <v>246</v>
       </c>
       <c r="C45">
         <v>2019</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I45">
         <v>0.75</v>
@@ -5216,10 +5369,10 @@
         <v>17</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>58</v>
@@ -5228,69 +5381,72 @@
         <v>145</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U45">
+        <v>160</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V45">
         <v>1</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>12</v>
       </c>
-      <c r="W45" s="2">
+      <c r="X45" s="2">
         <v>10005</v>
       </c>
-      <c r="X45" s="2">
+      <c r="Y45" s="2">
         <v>10014</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>38</v>
       </c>
-      <c r="AC45" s="6">
+      <c r="AD45" s="6">
         <v>81.599999999999994</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AE45" s="6">
         <v>58.8</v>
       </c>
-      <c r="AE45" s="6">
+      <c r="AF45" s="6">
         <v>91.8</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C46">
         <v>2021</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I46">
         <v>0.75</v>
@@ -5308,10 +5464,10 @@
         <v>17</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>58</v>
@@ -5320,75 +5476,78 @@
         <v>145</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U46">
+        <v>166</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V46">
         <v>1</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>24</v>
       </c>
-      <c r="W46" s="2">
+      <c r="X46" s="2">
         <v>10005</v>
       </c>
-      <c r="X46" s="2">
+      <c r="Y46" s="2">
         <v>10014</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18145</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>18154</v>
       </c>
-      <c r="AC46" s="6">
+      <c r="AD46" s="6">
         <v>79</v>
       </c>
-      <c r="AD46" s="6">
+      <c r="AE46" s="6">
         <v>61.9</v>
       </c>
-      <c r="AE46" s="6">
+      <c r="AF46" s="6">
         <v>88.5</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47">
         <v>2021</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -5406,10 +5565,10 @@
         <v>17</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>58</v>
@@ -5418,71 +5577,74 @@
         <v>144</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U47">
+        <v>166</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="V47">
         <v>1</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>24</v>
       </c>
-      <c r="Y47" s="3">
-        <v>5</v>
-      </c>
       <c r="Z47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>14</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AB47" s="2">
         <f>5/127*100000</f>
         <v>3937.0078740157478</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AC47" s="2">
         <f>14/362*100000</f>
         <v>3867.4033149171269</v>
       </c>
-      <c r="AC47" s="6">
+      <c r="AD47" s="6">
         <v>64.900000000000006</v>
       </c>
-      <c r="AD47" s="6">
+      <c r="AE47" s="6">
         <v>2.5</v>
       </c>
-      <c r="AE47" s="6">
+      <c r="AF47" s="6">
         <v>87.3</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C48">
         <v>2021</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I48">
         <v>5</v>
@@ -5500,10 +5662,10 @@
         <v>17</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>58</v>
@@ -5512,71 +5674,74 @@
         <v>144</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U48">
+        <v>166</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V48">
         <v>1</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>24</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>47</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AB48" s="2">
         <f>6/46*100000</f>
         <v>13043.478260869564</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AC48" s="2">
         <f>47/369*100000</f>
         <v>12737.127371273713</v>
       </c>
-      <c r="AC48" s="6">
+      <c r="AD48" s="6">
         <v>87.5</v>
       </c>
-      <c r="AD48" s="6">
+      <c r="AE48" s="6">
         <v>70.8</v>
       </c>
-      <c r="AE48" s="6">
+      <c r="AF48" s="6">
         <v>94.5</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C49">
         <v>2021</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -5594,10 +5759,10 @@
         <v>17</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>58</v>
@@ -5606,71 +5771,74 @@
         <v>144</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U49">
+        <v>160</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V49">
         <v>1</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>12</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>36</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AB49" s="2">
         <f>6/61*100000</f>
         <v>9836.065573770491</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AC49" s="2">
         <f>36/370*100000</f>
         <v>9729.72972972973</v>
       </c>
-      <c r="AC49" s="6">
+      <c r="AD49" s="6">
         <v>83.4</v>
       </c>
-      <c r="AD49" s="6">
+      <c r="AE49" s="6">
         <v>60.5</v>
       </c>
-      <c r="AE49" s="6">
+      <c r="AF49" s="6">
         <v>93</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AG49" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50">
         <v>2021</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -5688,10 +5856,10 @@
         <v>17</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>58</v>
@@ -5700,74 +5868,77 @@
         <v>144</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U50">
+        <v>161</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V50">
         <v>13</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>24</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Z50" s="3">
         <v>7</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="AA50" s="3">
         <v>26</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AB50" s="2">
         <f>7/83*100000</f>
         <v>8433.7349397590351</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AC50" s="2">
         <f>26/310*100000</f>
         <v>8387.0967741935492</v>
       </c>
-      <c r="AC50" s="6">
+      <c r="AD50" s="6">
         <v>73</v>
       </c>
-      <c r="AD50" s="6">
+      <c r="AE50" s="6">
         <v>37.9</v>
       </c>
-      <c r="AE50" s="6">
+      <c r="AF50" s="6">
         <v>88.3</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AG50" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>65</v>
@@ -5782,10 +5953,10 @@
         <v>17</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>58</v>
@@ -5794,81 +5965,84 @@
         <v>145</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U51">
+        <v>166</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V51">
         <v>18</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>24</v>
       </c>
-      <c r="W51" s="2">
+      <c r="X51" s="2">
         <v>13945</v>
       </c>
-      <c r="X51" s="2">
+      <c r="Y51" s="2">
         <v>13937</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Z51" s="3">
         <v>10</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="AA51" s="3">
         <v>61</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AB51" s="3">
         <v>25323</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AC51" s="3">
         <v>25239</v>
       </c>
-      <c r="AC51" s="6">
+      <c r="AD51" s="6">
         <v>83.7</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AE51" s="6">
         <v>68.099999999999994</v>
       </c>
-      <c r="AE51" s="6">
+      <c r="AF51" s="6">
         <v>91.6</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AG51" s="3">
         <v>95</v>
       </c>
-      <c r="AG51" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>63</v>
@@ -5883,10 +6057,10 @@
         <v>17</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>58</v>
@@ -5895,78 +6069,81 @@
         <v>144</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U52">
+        <v>166</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V52">
         <v>18</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>24</v>
       </c>
-      <c r="W52" s="2">
+      <c r="X52" s="2">
         <v>5044</v>
       </c>
-      <c r="X52" s="2">
+      <c r="Y52" s="2">
         <v>5158</v>
       </c>
-      <c r="Y52" s="3">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>20</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9057</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9261</v>
       </c>
-      <c r="AC52" s="6">
+      <c r="AD52" s="6">
         <v>74.400000000000006</v>
       </c>
-      <c r="AD52" s="6">
+      <c r="AE52" s="6">
         <v>31.8</v>
       </c>
-      <c r="AE52" s="6">
+      <c r="AF52" s="6">
         <v>90.4</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AG52" s="3">
         <v>95</v>
       </c>
-      <c r="AG52" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>63</v>
@@ -5984,10 +6161,10 @@
         <v>17</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>58</v>
@@ -5996,81 +6173,84 @@
         <v>144</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U53">
+        <v>166</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V53">
         <v>18</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>24</v>
       </c>
-      <c r="W53" s="2">
+      <c r="X53" s="2">
         <v>8901</v>
       </c>
-      <c r="X53" s="2">
+      <c r="Y53" s="2">
         <v>8799</v>
       </c>
-      <c r="Y53" s="3">
-        <v>5</v>
-      </c>
       <c r="Z53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="3">
         <v>41</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AB53" s="3">
         <v>16267</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AC53" s="3">
         <v>15978</v>
       </c>
-      <c r="AC53" s="6">
+      <c r="AD53" s="6">
         <v>88</v>
       </c>
-      <c r="AD53" s="6">
+      <c r="AE53" s="6">
         <v>69.7</v>
       </c>
-      <c r="AE53" s="6">
+      <c r="AF53" s="6">
         <v>95.3</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AG53" s="3">
         <v>95</v>
       </c>
-      <c r="AG53" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>65</v>
@@ -6085,10 +6265,10 @@
         <v>17</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>64</v>
@@ -6097,81 +6277,84 @@
         <v>144</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U54">
+        <v>160</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V54">
         <v>1</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>12</v>
       </c>
-      <c r="W54" s="2">
+      <c r="X54" s="2">
         <v>14069</v>
       </c>
-      <c r="X54" s="2">
+      <c r="Y54" s="2">
         <v>14061</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14058</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14046</v>
       </c>
-      <c r="AC54" s="6">
+      <c r="AD54" s="6">
         <v>83.4</v>
       </c>
-      <c r="AD54" s="6">
+      <c r="AE54" s="6">
         <v>60.1</v>
       </c>
-      <c r="AE54" s="6">
+      <c r="AF54" s="6">
         <v>94.3</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>95</v>
       </c>
-      <c r="AG54" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH54" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>65</v>
@@ -6186,10 +6369,10 @@
         <v>17</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>64</v>
@@ -6198,81 +6381,84 @@
         <v>144</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U55">
+        <v>161</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V55">
         <v>13</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>24</v>
       </c>
-      <c r="W55" s="2">
+      <c r="X55" s="2">
         <v>14050</v>
       </c>
-      <c r="X55" s="2">
+      <c r="Y55" s="2">
         <v>14006</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Z55" s="3">
         <v>6</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="AA55" s="3">
         <v>26</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AB55" s="3">
         <v>14046</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AC55" s="3">
         <v>13985</v>
       </c>
-      <c r="AC55" s="6">
+      <c r="AD55" s="6">
         <v>77</v>
       </c>
-      <c r="AD55" s="6">
+      <c r="AE55" s="6">
         <v>42.9</v>
       </c>
-      <c r="AE55" s="6">
+      <c r="AF55" s="6">
         <v>92.3</v>
       </c>
-      <c r="AF55" s="3">
+      <c r="AG55" s="3">
         <v>95</v>
       </c>
-      <c r="AG55" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>65</v>
@@ -6287,10 +6473,10 @@
         <v>17</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>64</v>
@@ -6299,81 +6485,84 @@
         <v>144</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="U56">
+        <v>274</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V56">
         <v>25</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>36</v>
       </c>
-      <c r="W56" s="2">
+      <c r="X56" s="2">
         <v>14043</v>
       </c>
-      <c r="X56" s="2">
+      <c r="Y56" s="2">
         <v>13976</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Z56" s="3">
         <v>3</v>
       </c>
-      <c r="Z56" s="3">
-        <v>139</v>
-      </c>
       <c r="AA56" s="3">
+        <v>139</v>
+      </c>
+      <c r="AB56" s="3">
         <v>14031</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AC56" s="3">
         <v>13963</v>
       </c>
-      <c r="AC56" s="6">
+      <c r="AD56" s="6">
         <v>77</v>
       </c>
-      <c r="AD56" s="6">
+      <c r="AE56" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="AE56" s="6">
+      <c r="AF56" s="6">
         <v>95.8</v>
       </c>
-      <c r="AF56" s="3">
+      <c r="AG56" s="3">
         <v>95</v>
       </c>
-      <c r="AG56" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>65</v>
@@ -6388,10 +6577,10 @@
         <v>17</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>64</v>
@@ -6400,81 +6589,84 @@
         <v>144</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U57">
+        <v>162</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V57">
         <v>37</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>48</v>
       </c>
-      <c r="W57" s="2">
+      <c r="X57" s="2">
         <v>13996</v>
       </c>
-      <c r="X57" s="2">
+      <c r="Y57" s="2">
         <v>13928</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>25</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13968</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13906</v>
       </c>
-      <c r="AC57" s="6">
+      <c r="AD57" s="6">
         <v>68.2</v>
       </c>
-      <c r="AD57" s="6">
+      <c r="AE57" s="6">
         <v>27.2</v>
       </c>
-      <c r="AE57" s="6">
+      <c r="AF57" s="6">
         <v>87.6</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>95</v>
       </c>
-      <c r="AG57" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>65</v>
@@ -6489,10 +6681,10 @@
         <v>17</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>64</v>
@@ -6501,81 +6693,84 @@
         <v>144</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U58">
+        <v>275</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V58">
         <v>49</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>55</v>
       </c>
-      <c r="W58" s="2">
+      <c r="X58" s="2">
         <v>13980</v>
       </c>
-      <c r="X58" s="2">
+      <c r="Y58" s="2">
         <v>13893</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4379</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4331</v>
       </c>
-      <c r="AC58" s="6">
+      <c r="AD58" s="6">
         <v>90.1</v>
       </c>
-      <c r="AD58" s="6">
+      <c r="AE58" s="6">
         <v>30.5</v>
       </c>
-      <c r="AE58" s="6">
+      <c r="AF58" s="6">
         <v>99.8</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>95</v>
       </c>
-      <c r="AG58" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>59</v>
@@ -6590,10 +6785,10 @@
         <v>17</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>64</v>
@@ -6602,78 +6797,81 @@
         <v>144</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U59">
+        <v>278</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V59">
         <v>1</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>55</v>
       </c>
-      <c r="W59" s="2">
+      <c r="X59" s="2">
         <v>1555</v>
       </c>
-      <c r="X59" s="2">
+      <c r="Y59" s="2">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>14</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6586</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6773</v>
       </c>
-      <c r="AC59" s="6">
+      <c r="AD59" s="6">
         <v>70.599999999999994</v>
       </c>
-      <c r="AD59" s="6">
+      <c r="AE59" s="6">
         <v>6.4</v>
       </c>
-      <c r="AE59" s="6">
+      <c r="AF59" s="6">
         <v>93</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>95</v>
       </c>
-      <c r="AG59" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH59" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>59</v>
@@ -6691,10 +6889,10 @@
         <v>17</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>64</v>
@@ -6703,78 +6901,81 @@
         <v>144</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U60">
+        <v>278</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V60">
         <v>1</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>55</v>
       </c>
-      <c r="W60" s="2">
+      <c r="X60" s="2">
         <v>3503</v>
       </c>
-      <c r="X60" s="2">
+      <c r="Y60" s="2">
         <v>3579</v>
       </c>
-      <c r="Y60" s="3">
-        <v>5</v>
-      </c>
       <c r="Z60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>25</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15007</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15297</v>
       </c>
-      <c r="AC60" s="6">
+      <c r="AD60" s="6">
         <v>79.599999999999994</v>
       </c>
-      <c r="AD60" s="6">
+      <c r="AE60" s="6">
         <v>45.8</v>
       </c>
-      <c r="AE60" s="6">
+      <c r="AF60" s="6">
         <v>93.9</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>95</v>
       </c>
-      <c r="AG60" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH60" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>63</v>
@@ -6792,10 +6993,10 @@
         <v>17</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>64</v>
@@ -6804,81 +7005,84 @@
         <v>144</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U61">
+        <v>278</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V61">
         <v>1</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>55</v>
       </c>
-      <c r="W61" s="2">
+      <c r="X61" s="2">
         <v>9011</v>
       </c>
-      <c r="X61" s="2">
+      <c r="Y61" s="2">
         <v>8882</v>
       </c>
-      <c r="Y61" s="3">
-        <v>15</v>
-      </c>
       <c r="Z61" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA61" s="3">
         <v>71</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>38907</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>38151</v>
       </c>
-      <c r="AC61" s="6">
+      <c r="AD61" s="6">
         <v>79.3</v>
       </c>
-      <c r="AD61" s="6">
+      <c r="AE61" s="6">
         <v>63.5</v>
       </c>
-      <c r="AE61" s="6">
+      <c r="AF61" s="6">
         <v>89</v>
       </c>
-      <c r="AF61" s="3">
+      <c r="AG61" s="3">
         <v>95</v>
       </c>
-      <c r="AG61" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>65</v>
@@ -6893,10 +7097,10 @@
         <v>17</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>58</v>
@@ -6905,81 +7109,84 @@
         <v>145</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U62">
+        <v>278</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V62">
         <v>1</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>55</v>
       </c>
-      <c r="W62" s="2">
+      <c r="X62" s="2">
         <v>14069</v>
       </c>
-      <c r="X62" s="2">
+      <c r="Y62" s="2">
         <v>14061</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>24</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>110</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>60500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>60220</v>
       </c>
-      <c r="AC62" s="6">
+      <c r="AD62" s="6">
         <v>78.3</v>
       </c>
-      <c r="AD62" s="6">
+      <c r="AE62" s="6">
         <v>66.3</v>
       </c>
-      <c r="AE62" s="6">
+      <c r="AF62" s="6">
         <v>86.1</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AG62" s="3">
         <v>95</v>
       </c>
-      <c r="AG62" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>65</v>
@@ -6994,10 +7201,10 @@
         <v>17</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>58</v>
@@ -7006,78 +7213,81 @@
         <v>145</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U63">
+        <v>278</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V63">
         <v>1</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>55</v>
       </c>
-      <c r="W63" s="2">
+      <c r="X63" s="2">
         <v>13945</v>
       </c>
-      <c r="X63" s="2">
+      <c r="Y63" s="2">
         <v>13937</v>
       </c>
-      <c r="Y63" s="3">
+      <c r="Z63" s="3">
         <v>22</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="AA63" s="3">
         <v>109</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AB63" s="3">
         <v>59942</v>
       </c>
-      <c r="AB63" s="3">
+      <c r="AC63" s="3">
         <v>59662</v>
       </c>
-      <c r="AC63" s="6">
+      <c r="AD63" s="6">
         <v>80</v>
       </c>
-      <c r="AD63" s="6">
+      <c r="AE63" s="6">
         <v>68.3</v>
       </c>
-      <c r="AE63" s="6">
+      <c r="AF63" s="6">
         <v>87.3</v>
       </c>
-      <c r="AF63" s="3">
+      <c r="AG63" s="3">
         <v>95</v>
       </c>
-      <c r="AG63" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>59</v>
@@ -7095,10 +7305,10 @@
         <v>17</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>58</v>
@@ -7107,69 +7317,72 @@
         <v>145</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>27</v>
+      </c>
+      <c r="X64" s="2">
+        <v>5525</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>5566</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>47</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>91.5</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>96.6</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64">
-        <v>27</v>
-      </c>
-      <c r="W64" s="2">
-        <v>5525</v>
-      </c>
-      <c r="X64" s="2">
-        <v>5566</v>
-      </c>
-      <c r="Y64" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>47</v>
-      </c>
-      <c r="AC64" s="6">
-        <v>91.5</v>
-      </c>
-      <c r="AD64" s="6">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AE64" s="6">
-        <v>96.6</v>
-      </c>
-      <c r="AF64" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>59</v>
@@ -7187,10 +7400,10 @@
         <v>17</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>58</v>
@@ -7199,72 +7412,75 @@
         <v>145</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>27</v>
+      </c>
+      <c r="X65" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>87.7</v>
+      </c>
+      <c r="AE65" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="AF65" s="6">
+        <v>99.7</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>95</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
-      <c r="V65">
-        <v>27</v>
-      </c>
-      <c r="W65" s="2">
-        <v>378</v>
-      </c>
-      <c r="X65" s="2">
-        <v>393</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC65" s="6">
-        <v>87.7</v>
-      </c>
-      <c r="AD65" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="AE65" s="6">
-        <v>99.7</v>
-      </c>
-      <c r="AF65" s="3">
-        <v>95</v>
-      </c>
-      <c r="AG65" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>59</v>
@@ -7273,7 +7489,7 @@
         <v>63</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>21</v>
@@ -7282,10 +7498,10 @@
         <v>17</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>64</v>
@@ -7294,42 +7510,45 @@
         <v>145</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="U66">
+        <v>287</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V66">
         <v>1</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>27</v>
       </c>
-      <c r="W66" s="2">
-        <v>5</v>
-      </c>
       <c r="X66" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="2">
         <v>56</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>0</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21</v>
       </c>
-      <c r="AC66" s="6">
+      <c r="AD66" s="6">
         <v>100</v>
       </c>
-      <c r="AD66" s="6">
+      <c r="AE66" s="6">
         <v>-102</v>
       </c>
-      <c r="AE66" s="6">
+      <c r="AF66" s="6">
         <v>100</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>95</v>
       </c>
     </row>
@@ -7393,7 +7612,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -7402,13 +7621,13 @@
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
         <v>116</v>
@@ -7420,10 +7639,10 @@
         <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R1" t="s">
         <v>120</v>
@@ -7435,49 +7654,49 @@
         <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W1" t="s">
         <v>123</v>
       </c>
       <c r="X1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z1" t="s">
         <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AH1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AI1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AJ1" t="s">
         <v>125</v>
@@ -7489,10 +7708,10 @@
         <v>127</v>
       </c>
       <c r="AM1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO1" t="s">
         <v>128</v>
@@ -7504,112 +7723,112 @@
         <v>130</v>
       </c>
       <c r="AR1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AS1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT1" t="s">
         <v>131</v>
       </c>
       <c r="AU1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AW1" t="s">
         <v>132</v>
       </c>
       <c r="AX1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AY1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AZ1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BA1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BB1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BC1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BD1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BE1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BF1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BG1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BH1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BI1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BJ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BK1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BL1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BM1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BN1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BO1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BP1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BQ1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BR1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BS1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BT1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BU1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BV1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BW1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BX1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BY1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BZ1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CA1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CB1" t="s">
         <v>26</v>
@@ -7626,7 +7845,7 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -7635,7 +7854,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>
@@ -7644,13 +7863,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M2">
         <v>1010</v>
@@ -7748,7 +7967,7 @@
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -7757,7 +7976,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>61</v>
@@ -7766,13 +7985,13 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -7868,7 +8087,7 @@
         <v>14.8</v>
       </c>
       <c r="CB3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
@@ -7882,7 +8101,7 @@
         <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -7900,13 +8119,13 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4">
         <v>117</v>
@@ -8002,7 +8221,7 @@
         <v>31.3</v>
       </c>
       <c r="CB4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.2">
@@ -8016,7 +8235,7 @@
         <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -8034,13 +8253,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M5">
         <v>372</v>
@@ -8136,7 +8355,7 @@
         <v>63</v>
       </c>
       <c r="CB5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
@@ -8150,7 +8369,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -8168,13 +8387,13 @@
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M6">
         <v>236</v>
@@ -8270,7 +8489,7 @@
         <v>109</v>
       </c>
       <c r="CB6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
@@ -8284,7 +8503,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -8293,7 +8512,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>53</v>
@@ -8302,13 +8521,13 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M7">
         <v>269</v>
@@ -8404,7 +8623,7 @@
         <v>205</v>
       </c>
       <c r="CB7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
@@ -8418,7 +8637,7 @@
         <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -8427,7 +8646,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>59</v>
@@ -8436,25 +8655,25 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M8">
         <v>132</v>
       </c>
       <c r="O8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R8">
         <v>132</v>
@@ -8493,7 +8712,7 @@
         <v>4.8</v>
       </c>
       <c r="CB8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
@@ -8507,7 +8726,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -8525,25 +8744,25 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M9">
         <v>372</v>
       </c>
       <c r="O9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R9">
         <v>372</v>
@@ -8582,7 +8801,7 @@
         <v>7.8</v>
       </c>
       <c r="CB9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
@@ -8596,7 +8815,7 @@
         <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -8614,25 +8833,25 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10">
         <v>236</v>
       </c>
       <c r="O10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R10">
         <v>236</v>
@@ -8671,7 +8890,7 @@
         <v>13</v>
       </c>
       <c r="CB10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
@@ -8685,7 +8904,7 @@
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -8694,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
@@ -8703,25 +8922,25 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M11">
         <v>269</v>
       </c>
       <c r="O11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R11">
         <v>269</v>
@@ -8760,27 +8979,27 @@
         <v>20</v>
       </c>
       <c r="CB11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="10">
         <v>2022</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G12">
         <v>0.75</v>
@@ -8792,13 +9011,13 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M12">
         <v>269</v>
@@ -8915,27 +9134,27 @@
         <v>119</v>
       </c>
       <c r="CB12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" s="10">
         <v>2017</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -8947,13 +9166,13 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13">
         <v>41</v>
@@ -9013,27 +9232,27 @@
         <v>12.2</v>
       </c>
       <c r="CB13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" s="10">
         <v>2017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14">
         <v>18</v>
@@ -9045,13 +9264,13 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14">
         <v>37</v>
@@ -9113,22 +9332,22 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" s="10">
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G15">
         <v>0.75</v>
@@ -9140,13 +9359,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15">
         <v>683</v>
@@ -9155,13 +9374,13 @@
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R15">
         <v>683</v>
@@ -9197,13 +9416,13 @@
         <v>7</v>
       </c>
       <c r="AL15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15">
         <v>380</v>
@@ -9212,13 +9431,13 @@
         <v>10</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AT15">
         <v>1.8</v>
@@ -9254,33 +9473,33 @@
         <v>11</v>
       </c>
       <c r="BE15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BF15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BG15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C16" s="10">
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16">
         <v>0.75</v>
@@ -9292,13 +9511,13 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M16">
         <v>849</v>
@@ -9417,22 +9636,22 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C17" s="10">
         <v>2021</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G17">
         <v>0.75</v>
@@ -9444,13 +9663,13 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M17">
         <v>55</v>
@@ -9459,13 +9678,13 @@
         <v>1.82</v>
       </c>
       <c r="O17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R17">
         <v>55</v>
@@ -9498,13 +9717,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AL17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO17">
         <v>46</v>
@@ -9513,13 +9732,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AW17">
         <v>2.2000000000000002</v>
@@ -9534,7 +9753,7 @@
         <v>7.4</v>
       </c>
       <c r="BA17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BB17">
         <v>12.5</v>
@@ -9546,33 +9765,33 @@
         <v>3.5</v>
       </c>
       <c r="BE17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BF17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BG17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C18" s="10">
         <v>2021</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -9584,13 +9803,13 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M18">
         <v>225</v>
@@ -9599,13 +9818,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R18">
         <v>225</v>
@@ -9638,13 +9857,13 @@
         <v>2.6</v>
       </c>
       <c r="AL18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO18">
         <v>116</v>
@@ -9653,13 +9872,13 @@
         <v>6.9</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX18">
         <v>220</v>
@@ -9683,33 +9902,33 @@
         <v>5.5</v>
       </c>
       <c r="BE18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BF18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BG18" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C19" s="10">
         <v>2021</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -9721,13 +9940,13 @@
         <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M19">
         <v>403</v>
@@ -9736,13 +9955,13 @@
         <v>13.7</v>
       </c>
       <c r="O19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R19">
         <v>403</v>
@@ -9775,13 +9994,13 @@
         <v>9.6</v>
       </c>
       <c r="AL19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO19">
         <v>218</v>
@@ -9790,13 +10009,13 @@
         <v>12.8</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX19">
         <v>343</v>
@@ -9820,33 +10039,33 @@
         <v>17.3</v>
       </c>
       <c r="BE19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BF19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BG19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" s="10">
         <v>2021</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G20">
         <v>0.75</v>
@@ -9858,13 +10077,13 @@
         <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20">
         <v>99</v>
@@ -9968,22 +10187,22 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="10">
         <v>2021</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -9995,13 +10214,13 @@
         <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M21">
         <v>288</v>
@@ -10105,22 +10324,22 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="10">
         <v>2021</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -10132,13 +10351,13 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22">
         <v>462</v>
@@ -10242,22 +10461,22 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>59</v>
@@ -10269,13 +10488,13 @@
         <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -10322,22 +10541,22 @@
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
@@ -10349,13 +10568,13 @@
         <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24">
         <v>90</v>
@@ -10402,40 +10621,40 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25">
         <v>146</v>
@@ -10482,40 +10701,40 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26">
         <v>126</v>
@@ -10562,40 +10781,40 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27">
         <v>86</v>
@@ -10642,40 +10861,40 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -10722,40 +10941,40 @@
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29">
         <v>139</v>
@@ -10802,22 +11021,22 @@
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>61</v>
@@ -10829,13 +11048,13 @@
         <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M30">
         <v>168</v>
@@ -10882,40 +11101,40 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
         <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M31">
         <v>243</v>
@@ -10944,40 +11163,40 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M32">
         <v>197</v>
@@ -11006,25 +11225,25 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>59</v>
@@ -11033,13 +11252,13 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M33">
         <v>220</v>

--- a/data/typhoid_vaccine_study_data.xlsx
+++ b/data/typhoid_vaccine_study_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/famulare/git/famulare/typhoid-immune-dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F11104D-8755-EB4C-B109-F9242FA8F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE34F2-5E76-4E4A-9E65-8E8FBE73A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="840" windowWidth="19540" windowHeight="17440" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
+    <workbookView xWindow="960" yWindow="840" windowWidth="33600" windowHeight="17440" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
   </bookViews>
   <sheets>
     <sheet name="efficacy" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="311">
   <si>
     <t>study</t>
   </si>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>fever&gt;=38</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1043,7 +1046,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1379,11 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E976F573-8D26-E847-8FB6-13AA5974A482}">
-  <dimension ref="A1:AH66"/>
+  <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V66" sqref="V66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4032,7 +4034,7 @@
       <c r="A30" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C30">
@@ -4466,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" ref="AD34:AD37" si="0">(1-(Z34/X34)/(AA34/Y34))*100</f>
+        <f>(1-(Z34/X34)/(AA34/Y34))*100</f>
         <v>16.216216216216218</v>
       </c>
       <c r="AG34" s="3">
@@ -4553,7 +4555,7 @@
         <v>22</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AD35:AD39" si="0">(1-(Z35/X35)/(AA35/Y35))*100</f>
         <v>15.454545454545466</v>
       </c>
       <c r="AG35" s="3">
@@ -4589,7 +4591,7 @@
         <v>60</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>21</v>
@@ -4628,20 +4630,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X36" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Y36" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z36" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA36" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD36" s="6">
         <f t="shared" si="0"/>
-        <v>-16.599190283400823</v>
+        <v>70.42925278219397</v>
       </c>
       <c r="AG36" s="3">
         <v>95</v>
@@ -4676,7 +4678,7 @@
         <v>60</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>21</v>
@@ -4715,20 +4717,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z37" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA37" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD37" s="6">
         <f t="shared" si="0"/>
-        <v>2.8340080971659853</v>
+        <v>42.689075630252091</v>
       </c>
       <c r="AG37" s="3">
         <v>95</v>
@@ -4745,7 +4747,7 @@
         <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -4769,7 +4771,7 @@
         <v>21</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>299</v>
@@ -4787,7 +4789,7 @@
         <v>226</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>61</v>
@@ -4802,19 +4804,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X38" s="2">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>19</v>
       </c>
       <c r="AD38" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF38" s="6">
-        <v>22.7</v>
+        <f t="shared" si="0"/>
+        <v>-16.599190283400823</v>
       </c>
       <c r="AG38" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
@@ -4828,7 +4834,7 @@
         <v>2017</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -4852,7 +4858,7 @@
         <v>21</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>299</v>
@@ -4870,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>61</v>
@@ -4885,19 +4891,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X39" s="2">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>19</v>
       </c>
       <c r="AD39" s="6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AF39" s="6">
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>2.8340080971659853</v>
       </c>
       <c r="AG39" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
@@ -4911,7 +4921,7 @@
         <v>2017</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -4968,16 +4978,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X40" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AD40" s="6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AE40" s="6">
         <v>0.05</v>
       </c>
       <c r="AF40" s="6">
-        <v>5.6</v>
+        <v>22.7</v>
       </c>
       <c r="AG40" s="3">
         <v>100</v>
@@ -5012,13 +5022,13 @@
         <v>60</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>299</v>
@@ -5027,7 +5037,7 @@
         <v>300</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>145</v>
@@ -5036,7 +5046,7 @@
         <v>226</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>61</v>
@@ -5051,23 +5061,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X41" s="2">
-        <v>13</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>11</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" ref="AD41:AD42" si="1">(1-(Z41/X41)/(AA41/Y41))*100</f>
-        <v>15.384615384615385</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>1.2</v>
       </c>
       <c r="AG41" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
@@ -5099,13 +5105,13 @@
         <v>60</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>299</v>
@@ -5114,7 +5120,7 @@
         <v>300</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>145</v>
@@ -5123,7 +5129,7 @@
         <v>226</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>61</v>
@@ -5138,23 +5144,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="X42" s="2">
-        <v>13</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>13</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AD42" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>5.6</v>
       </c>
       <c r="AG42" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
@@ -5186,7 +5188,7 @@
         <v>60</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
@@ -5201,7 +5203,7 @@
         <v>300</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>145</v>
@@ -5231,14 +5233,14 @@
         <v>24</v>
       </c>
       <c r="Z43" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AA43" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AD43" s="6">
-        <f>(1-(Z43/X43)/(AA43/Y43))*100</f>
-        <v>60.439560439560445</v>
+        <f t="shared" ref="AD43:AD44" si="1">(1-(Z43/X43)/(AA43/Y43))*100</f>
+        <v>15.384615384615385</v>
       </c>
       <c r="AG43" s="3">
         <v>95</v>
@@ -5273,7 +5275,7 @@
         <v>60</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>21</v>
@@ -5288,7 +5290,7 @@
         <v>300</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>145</v>
@@ -5318,14 +5320,14 @@
         <v>24</v>
       </c>
       <c r="Z44" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA44" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AD44" s="6">
-        <f>(1-(Z44/X44)/(AA44/Y44))*100</f>
-        <v>20.879120879120883</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG44" s="3">
         <v>95</v>
@@ -5333,13 +5335,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C45">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>240</v>
@@ -5348,19 +5350,19 @@
         <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>304</v>
       </c>
       <c r="I45">
-        <v>0.75</v>
+        <v>18</v>
       </c>
       <c r="J45">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>21</v>
@@ -5369,13 +5371,13 @@
         <v>17</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>300</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>145</v>
@@ -5384,40 +5386,35 @@
         <v>226</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="V45">
         <v>1</v>
       </c>
       <c r="W45">
-        <v>12</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X45" s="2">
-        <v>10005</v>
+        <v>13</v>
       </c>
       <c r="Y45" s="2">
-        <v>10014</v>
+        <v>24</v>
       </c>
       <c r="Z45" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA45" s="3">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AD45" s="6">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="AE45" s="6">
-        <v>58.8</v>
-      </c>
-      <c r="AF45" s="6">
-        <v>91.8</v>
+        <f>(1-(Z45/X45)/(AA45/Y45))*100</f>
+        <v>60.439560439560445</v>
       </c>
       <c r="AG45" s="3">
         <v>95</v>
@@ -5425,37 +5422,34 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C46">
-        <v>2021</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>239</v>
+        <v>2017</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>304</v>
       </c>
       <c r="I46">
-        <v>0.75</v>
+        <v>18</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>21</v>
@@ -5464,13 +5458,13 @@
         <v>17</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>300</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>145</v>
@@ -5479,46 +5473,35 @@
         <v>226</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="V46">
         <v>1</v>
       </c>
       <c r="W46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X46" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y46" s="2">
         <v>24</v>
       </c>
-      <c r="X46" s="2">
-        <v>10005</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>10014</v>
-      </c>
       <c r="Z46" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AA46" s="3">
-        <v>62</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>18145</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>18154</v>
+        <v>14</v>
       </c>
       <c r="AD46" s="6">
-        <v>79</v>
-      </c>
-      <c r="AE46" s="6">
-        <v>61.9</v>
-      </c>
-      <c r="AF46" s="6">
-        <v>88.5</v>
+        <f>(1-(Z46/X46)/(AA46/Y46))*100</f>
+        <v>20.879120879120883</v>
       </c>
       <c r="AG46" s="3">
         <v>95</v>
@@ -5526,16 +5509,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C47">
-        <v>2021</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>239</v>
+        <v>2019</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>240</v>
@@ -5550,10 +5530,10 @@
         <v>304</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>11</v>
@@ -5568,13 +5548,13 @@
         <v>279</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>226</v>
@@ -5583,39 +5563,37 @@
         <v>25</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="W47">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="X47" s="2">
+        <v>10005</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>10014</v>
       </c>
       <c r="Z47" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA47" s="3">
-        <v>14</v>
-      </c>
-      <c r="AB47" s="2">
-        <f>5/127*100000</f>
-        <v>3937.0078740157478</v>
-      </c>
-      <c r="AC47" s="2">
-        <f>14/362*100000</f>
-        <v>3867.4033149171269</v>
+        <v>38</v>
       </c>
       <c r="AD47" s="6">
-        <v>64.900000000000006</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AE47" s="6">
-        <v>2.5</v>
+        <v>58.8</v>
       </c>
       <c r="AF47" s="6">
-        <v>87.3</v>
+        <v>91.8</v>
       </c>
       <c r="AG47" s="3">
         <v>95</v>
@@ -5647,7 +5625,7 @@
         <v>304</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="J48">
         <v>15</v>
@@ -5665,13 +5643,13 @@
         <v>279</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>226</v>
@@ -5683,7 +5661,7 @@
         <v>166</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -5691,28 +5669,32 @@
       <c r="W48">
         <v>24</v>
       </c>
+      <c r="X48" s="2">
+        <v>10005</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>10014</v>
+      </c>
       <c r="Z48" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA48" s="3">
-        <v>47</v>
-      </c>
-      <c r="AB48" s="2">
-        <f>6/46*100000</f>
-        <v>13043.478260869564</v>
-      </c>
-      <c r="AC48" s="2">
-        <f>47/369*100000</f>
-        <v>12737.127371273713</v>
+        <v>62</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>18145</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>18154</v>
       </c>
       <c r="AD48" s="6">
-        <v>87.5</v>
+        <v>79</v>
       </c>
       <c r="AE48" s="6">
-        <v>70.8</v>
+        <v>61.9</v>
       </c>
       <c r="AF48" s="6">
-        <v>94.5</v>
+        <v>88.5</v>
       </c>
       <c r="AG48" s="3">
         <v>95</v>
@@ -5747,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="J49">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>11</v>
@@ -5759,10 +5741,10 @@
         <v>17</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>58</v>
@@ -5777,39 +5759,39 @@
         <v>25</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="V49">
         <v>1</v>
       </c>
       <c r="W49">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AB49" s="2">
-        <f>6/61*100000</f>
-        <v>9836.065573770491</v>
+        <f>5/127*100000</f>
+        <v>3937.0078740157478</v>
       </c>
       <c r="AC49" s="2">
-        <f>36/370*100000</f>
-        <v>9729.72972972973</v>
+        <f>14/362*100000</f>
+        <v>3867.4033149171269</v>
       </c>
       <c r="AD49" s="6">
-        <v>83.4</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AE49" s="6">
-        <v>60.5</v>
+        <v>2.5</v>
       </c>
       <c r="AF49" s="6">
-        <v>93</v>
+        <v>87.3</v>
       </c>
       <c r="AG49" s="3">
         <v>95</v>
@@ -5841,7 +5823,7 @@
         <v>304</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50">
         <v>15</v>
@@ -5856,10 +5838,10 @@
         <v>17</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>58</v>
@@ -5874,250 +5856,236 @@
         <v>25</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="V50">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>24</v>
       </c>
       <c r="Z50" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>47</v>
+      </c>
+      <c r="AB50" s="2">
+        <f>6/46*100000</f>
+        <v>13043.478260869564</v>
+      </c>
+      <c r="AC50" s="2">
+        <f>47/369*100000</f>
+        <v>12737.127371273713</v>
+      </c>
+      <c r="AD50" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>70.8</v>
+      </c>
+      <c r="AF50" s="6">
+        <v>94.5</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51">
+        <v>2021</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>12</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>36</v>
+      </c>
+      <c r="AB51" s="2">
+        <f>6/61*100000</f>
+        <v>9836.065573770491</v>
+      </c>
+      <c r="AC51" s="2">
+        <f>36/370*100000</f>
+        <v>9729.72972972973</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>83.4</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>93</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V52">
+        <v>13</v>
+      </c>
+      <c r="W52">
+        <v>24</v>
+      </c>
+      <c r="Z52" s="3">
         <v>7</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA52" s="3">
         <v>26</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AB52" s="2">
         <f>7/83*100000</f>
         <v>8433.7349397590351</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC52" s="2">
         <f>26/310*100000</f>
         <v>8387.0967741935492</v>
       </c>
-      <c r="AD50" s="6">
+      <c r="AD52" s="6">
         <v>73</v>
       </c>
-      <c r="AE50" s="6">
+      <c r="AE52" s="6">
         <v>37.9</v>
       </c>
-      <c r="AF50" s="6">
+      <c r="AF52" s="6">
         <v>88.3</v>
-      </c>
-      <c r="AG50" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="V51">
-        <v>18</v>
-      </c>
-      <c r="W51">
-        <v>24</v>
-      </c>
-      <c r="X51" s="2">
-        <v>13945</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>13937</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>10</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>25323</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>25239</v>
-      </c>
-      <c r="AD51" s="6">
-        <v>83.7</v>
-      </c>
-      <c r="AE51" s="6">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AF51" s="6">
-        <v>91.6</v>
-      </c>
-      <c r="AG51" s="3">
-        <v>95</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V52">
-        <v>18</v>
-      </c>
-      <c r="W52">
-        <v>24</v>
-      </c>
-      <c r="X52" s="2">
-        <v>5044</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>5158</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>9057</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>9261</v>
-      </c>
-      <c r="AD52" s="6">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="AE52" s="6">
-        <v>31.8</v>
-      </c>
-      <c r="AF52" s="6">
-        <v>90.4</v>
       </c>
       <c r="AG52" s="3">
         <v>95</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
@@ -6146,7 +6114,7 @@
         <v>304</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>65</v>
@@ -6163,14 +6131,14 @@
       <c r="N53" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O53" s="9" t="s">
-        <v>301</v>
+      <c r="O53" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>226</v>
@@ -6182,7 +6150,7 @@
         <v>166</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="V53">
         <v>18</v>
@@ -6191,31 +6159,31 @@
         <v>24</v>
       </c>
       <c r="X53" s="2">
-        <v>8901</v>
+        <v>13945</v>
       </c>
       <c r="Y53" s="2">
-        <v>8799</v>
+        <v>13937</v>
       </c>
       <c r="Z53" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA53" s="3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AB53" s="3">
-        <v>16267</v>
+        <v>25323</v>
       </c>
       <c r="AC53" s="3">
-        <v>15978</v>
+        <v>25239</v>
       </c>
       <c r="AD53" s="6">
-        <v>88</v>
+        <v>83.7</v>
       </c>
       <c r="AE53" s="6">
-        <v>69.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="AF53" s="6">
-        <v>95.3</v>
+        <v>91.6</v>
       </c>
       <c r="AG53" s="3">
         <v>95</v>
@@ -6226,16 +6194,16 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>240</v>
@@ -6253,7 +6221,7 @@
         <v>152</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>11</v>
@@ -6265,13 +6233,13 @@
         <v>17</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>144</v>
@@ -6283,63 +6251,63 @@
         <v>25</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="W54">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="X54" s="2">
-        <v>14069</v>
+        <v>5044</v>
       </c>
       <c r="Y54" s="2">
-        <v>14061</v>
+        <v>5158</v>
       </c>
       <c r="Z54" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA54" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AB54" s="3">
-        <v>14058</v>
+        <v>9057</v>
       </c>
       <c r="AC54" s="3">
-        <v>14046</v>
+        <v>9261</v>
       </c>
       <c r="AD54" s="6">
-        <v>83.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AE54" s="6">
-        <v>60.1</v>
+        <v>31.8</v>
       </c>
       <c r="AF54" s="6">
-        <v>94.3</v>
+        <v>90.4</v>
       </c>
       <c r="AG54" s="3">
         <v>95</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>240</v>
@@ -6354,7 +6322,7 @@
         <v>304</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>65</v>
@@ -6369,13 +6337,13 @@
         <v>17</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>144</v>
@@ -6387,49 +6355,49 @@
         <v>25</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="V55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W55">
         <v>24</v>
       </c>
       <c r="X55" s="2">
-        <v>14050</v>
+        <v>8901</v>
       </c>
       <c r="Y55" s="2">
-        <v>14006</v>
+        <v>8799</v>
       </c>
       <c r="Z55" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA55" s="3">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB55" s="3">
-        <v>14046</v>
+        <v>16267</v>
       </c>
       <c r="AC55" s="3">
-        <v>13985</v>
+        <v>15978</v>
       </c>
       <c r="AD55" s="6">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AE55" s="6">
-        <v>42.9</v>
+        <v>69.7</v>
       </c>
       <c r="AF55" s="6">
-        <v>92.3</v>
+        <v>95.3</v>
       </c>
       <c r="AG55" s="3">
         <v>95</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
@@ -6491,43 +6459,43 @@
         <v>25</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>264</v>
       </c>
       <c r="V56">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="W56">
+        <v>12</v>
+      </c>
+      <c r="X56" s="2">
+        <v>14069</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>14061</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA56" s="3">
         <v>36</v>
       </c>
-      <c r="X56" s="2">
-        <v>14043</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>13976</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>139</v>
-      </c>
       <c r="AB56" s="3">
-        <v>14031</v>
+        <v>14058</v>
       </c>
       <c r="AC56" s="3">
-        <v>13963</v>
+        <v>14046</v>
       </c>
       <c r="AD56" s="6">
-        <v>77</v>
+        <v>83.4</v>
       </c>
       <c r="AE56" s="6">
-        <v>16.399999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="AF56" s="6">
-        <v>95.8</v>
+        <v>94.3</v>
       </c>
       <c r="AG56" s="3">
         <v>95</v>
@@ -6595,43 +6563,43 @@
         <v>25</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>264</v>
       </c>
       <c r="V57">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="W57">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="X57" s="2">
-        <v>13996</v>
+        <v>14050</v>
       </c>
       <c r="Y57" s="2">
-        <v>13928</v>
+        <v>14006</v>
       </c>
       <c r="Z57" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA57" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB57" s="3">
-        <v>13968</v>
+        <v>14046</v>
       </c>
       <c r="AC57" s="3">
-        <v>13906</v>
+        <v>13985</v>
       </c>
       <c r="AD57" s="6">
-        <v>68.2</v>
+        <v>77</v>
       </c>
       <c r="AE57" s="6">
-        <v>27.2</v>
+        <v>42.9</v>
       </c>
       <c r="AF57" s="6">
-        <v>87.6</v>
+        <v>92.3</v>
       </c>
       <c r="AG57" s="3">
         <v>95</v>
@@ -6699,43 +6667,43 @@
         <v>25</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>264</v>
       </c>
       <c r="V58">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="W58">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="X58" s="2">
-        <v>13980</v>
+        <v>14043</v>
       </c>
       <c r="Y58" s="2">
-        <v>13893</v>
+        <v>13976</v>
       </c>
       <c r="Z58" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="AB58" s="3">
-        <v>4379</v>
+        <v>14031</v>
       </c>
       <c r="AC58" s="3">
-        <v>4331</v>
+        <v>13963</v>
       </c>
       <c r="AD58" s="6">
-        <v>90.1</v>
+        <v>77</v>
       </c>
       <c r="AE58" s="6">
-        <v>30.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AF58" s="6">
-        <v>99.8</v>
+        <v>95.8</v>
       </c>
       <c r="AG58" s="3">
         <v>95</v>
@@ -6773,7 +6741,7 @@
         <v>152</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>11</v>
@@ -6785,10 +6753,10 @@
         <v>17</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>64</v>
@@ -6803,49 +6771,49 @@
         <v>25</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="W59">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X59" s="2">
-        <v>1555</v>
+        <v>13996</v>
       </c>
       <c r="Y59" s="2">
-        <v>1600</v>
+        <v>13928</v>
       </c>
       <c r="Z59" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA59" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AB59" s="3">
-        <v>6586</v>
+        <v>13968</v>
       </c>
       <c r="AC59" s="3">
-        <v>6773</v>
+        <v>13906</v>
       </c>
       <c r="AD59" s="6">
-        <v>70.599999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="AE59" s="6">
-        <v>6.4</v>
+        <v>27.2</v>
       </c>
       <c r="AF59" s="6">
-        <v>93</v>
+        <v>87.6</v>
       </c>
       <c r="AG59" s="3">
         <v>95</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
@@ -6874,10 +6842,10 @@
         <v>304</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>11</v>
@@ -6889,10 +6857,10 @@
         <v>17</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>64</v>
@@ -6907,49 +6875,49 @@
         <v>25</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="W60">
         <v>55</v>
       </c>
       <c r="X60" s="2">
-        <v>3503</v>
+        <v>13980</v>
       </c>
       <c r="Y60" s="2">
-        <v>3579</v>
+        <v>13893</v>
       </c>
       <c r="Z60" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA60" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB60" s="3">
-        <v>15007</v>
+        <v>4379</v>
       </c>
       <c r="AC60" s="3">
-        <v>15297</v>
+        <v>4331</v>
       </c>
       <c r="AD60" s="6">
-        <v>79.599999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="AE60" s="6">
-        <v>45.8</v>
+        <v>30.5</v>
       </c>
       <c r="AF60" s="6">
-        <v>93.9</v>
+        <v>99.8</v>
       </c>
       <c r="AG60" s="3">
         <v>95</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
@@ -6978,10 +6946,10 @@
         <v>304</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>11</v>
@@ -7023,31 +6991,31 @@
         <v>55</v>
       </c>
       <c r="X61" s="2">
-        <v>9011</v>
+        <v>1555</v>
       </c>
       <c r="Y61" s="2">
-        <v>8882</v>
+        <v>1600</v>
       </c>
       <c r="Z61" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA61" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="AB61" s="3">
-        <v>38907</v>
+        <v>6586</v>
       </c>
       <c r="AC61" s="3">
-        <v>38151</v>
+        <v>6773</v>
       </c>
       <c r="AD61" s="6">
-        <v>79.3</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AE61" s="6">
-        <v>63.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF61" s="6">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AG61" s="3">
         <v>95</v>
@@ -7079,13 +7047,13 @@
         <v>271</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>11</v>
@@ -7099,14 +7067,14 @@
       <c r="N62" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>300</v>
+      <c r="O62" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>226</v>
@@ -7118,7 +7086,7 @@
         <v>278</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -7127,37 +7095,37 @@
         <v>55</v>
       </c>
       <c r="X62" s="2">
-        <v>14069</v>
+        <v>3503</v>
       </c>
       <c r="Y62" s="2">
-        <v>14061</v>
+        <v>3579</v>
       </c>
       <c r="Z62" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AB62" s="3">
-        <v>60500</v>
+        <v>15007</v>
       </c>
       <c r="AC62" s="3">
-        <v>60220</v>
+        <v>15297</v>
       </c>
       <c r="AD62" s="6">
-        <v>78.3</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="AE62" s="6">
-        <v>66.3</v>
+        <v>45.8</v>
       </c>
       <c r="AF62" s="6">
-        <v>86.1</v>
+        <v>93.9</v>
       </c>
       <c r="AG62" s="3">
         <v>95</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
@@ -7183,10 +7151,10 @@
         <v>271</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>65</v>
@@ -7203,14 +7171,14 @@
       <c r="N63" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>300</v>
+      <c r="O63" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>226</v>
@@ -7222,7 +7190,7 @@
         <v>278</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -7231,69 +7199,69 @@
         <v>55</v>
       </c>
       <c r="X63" s="2">
-        <v>13945</v>
+        <v>9011</v>
       </c>
       <c r="Y63" s="2">
-        <v>13937</v>
+        <v>8882</v>
       </c>
       <c r="Z63" s="3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AA63" s="3">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AB63" s="3">
-        <v>59942</v>
+        <v>38907</v>
       </c>
       <c r="AC63" s="3">
-        <v>59662</v>
+        <v>38151</v>
       </c>
       <c r="AD63" s="6">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="AE63" s="6">
-        <v>68.3</v>
+        <v>63.5</v>
       </c>
       <c r="AF63" s="6">
-        <v>87.3</v>
+        <v>89</v>
       </c>
       <c r="AG63" s="3">
         <v>95</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>11</v>
@@ -7307,7 +7275,7 @@
       <c r="N64" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" s="1" t="s">
         <v>300</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -7320,75 +7288,84 @@
         <v>226</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="V64">
         <v>1</v>
       </c>
       <c r="W64">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="X64" s="2">
-        <v>5525</v>
+        <v>14069</v>
       </c>
       <c r="Y64" s="2">
-        <v>5566</v>
+        <v>14061</v>
       </c>
       <c r="Z64" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AA64" s="3">
-        <v>47</v>
+        <v>110</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>60500</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>60220</v>
       </c>
       <c r="AD64" s="6">
-        <v>91.5</v>
+        <v>78.3</v>
       </c>
       <c r="AE64" s="6">
-        <v>77.099999999999994</v>
+        <v>66.3</v>
       </c>
       <c r="AF64" s="6">
-        <v>96.6</v>
+        <v>86.1</v>
       </c>
       <c r="AG64" s="3">
         <v>95</v>
       </c>
+      <c r="AH64" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>11</v>
@@ -7402,7 +7379,7 @@
       <c r="N65" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="1" t="s">
         <v>300</v>
       </c>
       <c r="P65" s="1" t="s">
@@ -7415,46 +7392,52 @@
         <v>226</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="W65">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="X65" s="2">
-        <v>378</v>
+        <v>13945</v>
       </c>
       <c r="Y65" s="2">
-        <v>393</v>
+        <v>13937</v>
       </c>
       <c r="Z65" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AA65" s="3">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>59942</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>59662</v>
       </c>
       <c r="AD65" s="6">
-        <v>87.7</v>
+        <v>80</v>
       </c>
       <c r="AE65" s="6">
-        <v>3.8</v>
+        <v>68.3</v>
       </c>
       <c r="AF65" s="6">
-        <v>99.7</v>
+        <v>87.3</v>
       </c>
       <c r="AG65" s="3">
         <v>95</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
@@ -7489,7 +7472,7 @@
         <v>63</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>21</v>
@@ -7504,7 +7487,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>145</v>
@@ -7528,27 +7511,220 @@
         <v>27</v>
       </c>
       <c r="X66" s="2">
-        <v>5</v>
+        <v>5525</v>
       </c>
       <c r="Y66" s="2">
+        <v>5566</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>47</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>91.5</v>
+      </c>
+      <c r="AE66" s="6">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AF66" s="6">
+        <v>96.6</v>
+      </c>
+      <c r="AG66" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>27</v>
+      </c>
+      <c r="X67" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>87.7</v>
+      </c>
+      <c r="AE67" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>99.7</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>95</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>27</v>
+      </c>
+      <c r="X68" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="2">
         <v>56</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z68" s="3">
         <v>0</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA68" s="3">
         <v>21</v>
       </c>
-      <c r="AD66" s="6">
+      <c r="AD68" s="6">
         <v>100</v>
       </c>
-      <c r="AE66" s="6">
+      <c r="AE68" s="6">
         <v>-102</v>
       </c>
-      <c r="AF66" s="6">
+      <c r="AF68" s="6">
         <v>100</v>
       </c>
-      <c r="AG66" s="3">
+      <c r="AG68" s="3">
         <v>95</v>
       </c>
     </row>
@@ -7556,21 +7732,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{161F70B6-3FFB-634B-99FC-3B4164591F9E}"/>
-    <hyperlink ref="B52" r:id="rId2" xr:uid="{7FC01869-90C0-5644-8714-26700C8CC743}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{F9ADD7E8-AA8D-4748-9EFC-6348B4B74A9E}"/>
-    <hyperlink ref="B51" r:id="rId4" xr:uid="{DABF1983-39B7-5042-9E81-1088839BA79E}"/>
-    <hyperlink ref="B54" r:id="rId5" xr:uid="{1BC27440-E48F-1344-BAEF-5C2A389E5114}"/>
-    <hyperlink ref="B55" r:id="rId6" xr:uid="{06CF78B3-DBE3-274E-94E8-0A957485B676}"/>
-    <hyperlink ref="B56" r:id="rId7" xr:uid="{40CEFE4D-A3B5-1046-93E2-4196ED0846A2}"/>
-    <hyperlink ref="B57" r:id="rId8" xr:uid="{700D5137-2144-9641-A42A-88D0F68E8522}"/>
-    <hyperlink ref="B58" r:id="rId9" xr:uid="{B1098C8C-4D37-9844-9395-756F0046D696}"/>
-    <hyperlink ref="B59" r:id="rId10" xr:uid="{00C6B523-31EF-5F46-A014-DD8D179224F6}"/>
-    <hyperlink ref="B60" r:id="rId11" xr:uid="{09A83033-79FD-5C4E-A152-CCF436016F9E}"/>
-    <hyperlink ref="B61" r:id="rId12" xr:uid="{4649D6C8-50AE-2346-B248-C037AB4D4A04}"/>
-    <hyperlink ref="B62" r:id="rId13" xr:uid="{ED0C29F5-D24A-F949-8A39-BCD52DCB17E2}"/>
-    <hyperlink ref="B63" r:id="rId14" xr:uid="{A0657EF5-A0C2-B44B-87BD-58CAAB44DFAF}"/>
+    <hyperlink ref="B54" r:id="rId2" xr:uid="{7FC01869-90C0-5644-8714-26700C8CC743}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{F9ADD7E8-AA8D-4748-9EFC-6348B4B74A9E}"/>
+    <hyperlink ref="B53" r:id="rId4" xr:uid="{DABF1983-39B7-5042-9E81-1088839BA79E}"/>
+    <hyperlink ref="B56" r:id="rId5" xr:uid="{1BC27440-E48F-1344-BAEF-5C2A389E5114}"/>
+    <hyperlink ref="B57" r:id="rId6" xr:uid="{06CF78B3-DBE3-274E-94E8-0A957485B676}"/>
+    <hyperlink ref="B58" r:id="rId7" xr:uid="{40CEFE4D-A3B5-1046-93E2-4196ED0846A2}"/>
+    <hyperlink ref="B59" r:id="rId8" xr:uid="{700D5137-2144-9641-A42A-88D0F68E8522}"/>
+    <hyperlink ref="B60" r:id="rId9" xr:uid="{B1098C8C-4D37-9844-9395-756F0046D696}"/>
+    <hyperlink ref="B61" r:id="rId10" xr:uid="{00C6B523-31EF-5F46-A014-DD8D179224F6}"/>
+    <hyperlink ref="B62" r:id="rId11" xr:uid="{09A83033-79FD-5C4E-A152-CCF436016F9E}"/>
+    <hyperlink ref="B63" r:id="rId12" xr:uid="{4649D6C8-50AE-2346-B248-C037AB4D4A04}"/>
+    <hyperlink ref="B64" r:id="rId13" xr:uid="{ED0C29F5-D24A-F949-8A39-BCD52DCB17E2}"/>
+    <hyperlink ref="B65" r:id="rId14" xr:uid="{A0657EF5-A0C2-B44B-87BD-58CAAB44DFAF}"/>
     <hyperlink ref="B34" r:id="rId15" xr:uid="{5756AE19-E495-984B-84AC-EC614B39B5C2}"/>
     <hyperlink ref="B2" r:id="rId16" xr:uid="{3A085ACA-DCD6-AA41-AA76-20A79D6736A6}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{07E6818A-27D6-2A42-B101-9BAFBB171B4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7580,15 +7757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149A3A41-8A6C-584E-BBE8-03656533BC7D}">
   <dimension ref="A1:CB33"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="BR8" sqref="BR8:BX11"/>
+      <selection pane="bottomLeft" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="10"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -7599,7 +7775,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7841,7 +8017,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7963,7 +8139,7 @@
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -8097,7 +8273,7 @@
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -8231,7 +8407,7 @@
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -8365,7 +8541,7 @@
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -8499,7 +8675,7 @@
       <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -8633,7 +8809,7 @@
       <c r="B8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -8722,7 +8898,7 @@
       <c r="B9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -8811,7 +8987,7 @@
       <c r="B10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -8900,7 +9076,7 @@
       <c r="B11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -8989,7 +9165,7 @@
       <c r="B12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -9144,7 +9320,7 @@
       <c r="B13" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -9242,7 +9418,7 @@
       <c r="B14" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9337,7 +9513,7 @@
       <c r="B15" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -9489,7 +9665,7 @@
       <c r="B16" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -9641,7 +9817,7 @@
       <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>2021</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -9781,7 +9957,7 @@
       <c r="B18" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>2021</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -9918,7 +10094,7 @@
       <c r="B19" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>2021</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10055,7 +10231,7 @@
       <c r="B20" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>2021</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -10192,7 +10368,7 @@
       <c r="B21" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>2021</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10329,7 +10505,7 @@
       <c r="B22" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -10466,7 +10642,7 @@
       <c r="B23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>251</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10546,7 +10722,7 @@
       <c r="B24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -10626,7 +10802,7 @@
       <c r="B25" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>251</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10706,7 +10882,7 @@
       <c r="B26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -10786,7 +10962,7 @@
       <c r="B27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" t="s">
         <v>251</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -10866,7 +11042,7 @@
       <c r="B28" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>251</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -10946,7 +11122,7 @@
       <c r="B29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" t="s">
         <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -11026,7 +11202,7 @@
       <c r="B30" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s">
         <v>251</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -11106,7 +11282,7 @@
       <c r="B31" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>251</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -11168,7 +11344,7 @@
       <c r="B32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>251</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -11230,7 +11406,7 @@
       <c r="B33" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>251</v>
       </c>
       <c r="D33" s="1" t="s">

--- a/data/typhoid_vaccine_study_data.xlsx
+++ b/data/typhoid_vaccine_study_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/famulare/git/famulare/typhoid-immune-dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE34F2-5E76-4E4A-9E65-8E8FBE73A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D3408-FE89-9941-9A7F-22F89B23DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="840" windowWidth="33600" windowHeight="17440" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
+    <workbookView xWindow="20060" yWindow="840" windowWidth="14500" windowHeight="17440" activeTab="1" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
   </bookViews>
   <sheets>
     <sheet name="efficacy" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="326">
   <si>
     <t>study</t>
   </si>
@@ -974,6 +974,51 @@
   </si>
   <si>
     <t>fever&gt;=38</t>
+  </si>
+  <si>
+    <t>Kossaczka1999</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC96958/</t>
+  </si>
+  <si>
+    <t>anti_Vi_IgG_Jackson_ImmunoResearch_Laboratories</t>
+  </si>
+  <si>
+    <t>anti_Vi_IgA_HP6107_George_Carlone_CDC</t>
+  </si>
+  <si>
+    <t>treatment_day182_N</t>
+  </si>
+  <si>
+    <t>treatment_day182_seropositive_percent</t>
+  </si>
+  <si>
+    <t>treatment_day182_elisa_U_per_ml_median</t>
+  </si>
+  <si>
+    <t>treatment_day182_elisa_U_per_ml_lower</t>
+  </si>
+  <si>
+    <t>treatment_day182_elisa_U_per_ml_upper</t>
+  </si>
+  <si>
+    <t>Vi-rEPA2</t>
+  </si>
+  <si>
+    <t>treatment_day70_N</t>
+  </si>
+  <si>
+    <t>treatment_day70_seropositive_percent</t>
+  </si>
+  <si>
+    <t>treatment_day70_elisa_U_per_ml_median</t>
+  </si>
+  <si>
+    <t>treatment_day70_elisa_U_per_ml_lower</t>
+  </si>
+  <si>
+    <t>treatment_day70_elisa_U_per_ml_upper</t>
   </si>
 </sst>
 </file>
@@ -1383,9 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E976F573-8D26-E847-8FB6-13AA5974A482}">
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD44" sqref="AD44"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7444,7 +7489,7 @@
       <c r="A66" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>283</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -7748,6 +7793,7 @@
     <hyperlink ref="B34" r:id="rId15" xr:uid="{5756AE19-E495-984B-84AC-EC614B39B5C2}"/>
     <hyperlink ref="B2" r:id="rId16" xr:uid="{3A085ACA-DCD6-AA41-AA76-20A79D6736A6}"/>
     <hyperlink ref="B30" r:id="rId17" xr:uid="{07E6818A-27D6-2A42-B101-9BAFBB171B4E}"/>
+    <hyperlink ref="B66" r:id="rId18" xr:uid="{5EFC5055-71C3-9848-B6B5-7D82010C4DBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7755,12 +7801,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149A3A41-8A6C-584E-BBE8-03656533BC7D}">
-  <dimension ref="A1:CB33"/>
+  <dimension ref="A1:CL46"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AZ5" sqref="AZ5"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7768,7 +7814,7 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7917,100 +7963,130 @@
         <v>132</v>
       </c>
       <c r="AX1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BH1" t="s">
         <v>185</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BI1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BJ1" t="s">
         <v>187</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BK1" t="s">
         <v>188</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BL1" t="s">
         <v>189</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BM1" t="s">
         <v>241</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BN1" t="s">
         <v>242</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BO1" t="s">
         <v>243</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BP1" t="s">
         <v>244</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BQ1" t="s">
         <v>245</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BR1" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BS1" t="s">
         <v>191</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BT1" t="s">
         <v>192</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BU1" t="s">
         <v>193</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BV1" t="s">
         <v>194</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BW1" t="s">
         <v>213</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BX1" t="s">
         <v>214</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BY1" t="s">
         <v>215</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BZ1" t="s">
         <v>216</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CA1" t="s">
         <v>217</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CB1" t="s">
         <v>195</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CC1" t="s">
         <v>196</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CD1" t="s">
         <v>197</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CE1" t="s">
         <v>198</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CF1" t="s">
         <v>199</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CG1" t="s">
         <v>200</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CH1" t="s">
         <v>201</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CI1" t="s">
         <v>202</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CJ1" t="s">
         <v>203</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CK1" t="s">
         <v>204</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CL1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8132,7 +8208,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -8202,21 +8278,6 @@
       <c r="Z3">
         <v>100</v>
       </c>
-      <c r="AX3">
-        <v>15</v>
-      </c>
-      <c r="AY3">
-        <v>93</v>
-      </c>
-      <c r="AZ3">
-        <v>23.14</v>
-      </c>
-      <c r="BA3">
-        <v>12.6</v>
-      </c>
-      <c r="BB3">
-        <v>42.5</v>
-      </c>
       <c r="BH3">
         <v>15</v>
       </c>
@@ -8224,13 +8285,13 @@
         <v>93</v>
       </c>
       <c r="BJ3">
-        <v>18.2</v>
+        <v>23.14</v>
       </c>
       <c r="BK3">
-        <v>8.9</v>
+        <v>12.6</v>
       </c>
       <c r="BL3">
-        <v>37.200000000000003</v>
+        <v>42.5</v>
       </c>
       <c r="BR3">
         <v>15</v>
@@ -8239,34 +8300,49 @@
         <v>93</v>
       </c>
       <c r="BT3">
-        <v>13.4</v>
+        <v>18.2</v>
       </c>
       <c r="BU3">
         <v>8.9</v>
       </c>
       <c r="BV3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>15</v>
+      </c>
+      <c r="CC3">
+        <v>93</v>
+      </c>
+      <c r="CD3">
+        <v>13.4</v>
+      </c>
+      <c r="CE3">
+        <v>8.9</v>
+      </c>
+      <c r="CF3">
         <v>20.100000000000001</v>
       </c>
-      <c r="BW3">
-        <v>15</v>
-      </c>
-      <c r="BX3">
+      <c r="CG3">
+        <v>15</v>
+      </c>
+      <c r="CH3">
         <v>87</v>
       </c>
-      <c r="BY3">
+      <c r="CI3">
         <v>10.5</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CJ3" t="s">
         <v>119</v>
       </c>
-      <c r="CA3">
+      <c r="CK3">
         <v>14.8</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CL3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -8336,71 +8412,71 @@
       <c r="Z4">
         <v>100</v>
       </c>
-      <c r="AX4">
-        <v>117</v>
-      </c>
-      <c r="AY4">
-        <v>99</v>
-      </c>
-      <c r="AZ4">
-        <v>62.1</v>
-      </c>
-      <c r="BA4">
-        <v>52.1</v>
-      </c>
-      <c r="BB4">
-        <v>74.099999999999994</v>
-      </c>
       <c r="BH4">
         <v>117</v>
       </c>
       <c r="BI4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BJ4">
-        <v>44.5</v>
+        <v>62.1</v>
       </c>
       <c r="BK4">
-        <v>37.4</v>
+        <v>52.1</v>
       </c>
       <c r="BL4">
-        <v>53</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="BR4">
         <v>117</v>
       </c>
       <c r="BS4">
+        <v>100</v>
+      </c>
+      <c r="BT4">
+        <v>44.5</v>
+      </c>
+      <c r="BU4">
+        <v>37.4</v>
+      </c>
+      <c r="BV4">
+        <v>53</v>
+      </c>
+      <c r="CB4">
+        <v>117</v>
+      </c>
+      <c r="CC4">
         <v>96</v>
       </c>
-      <c r="BT4">
-        <v>28</v>
-      </c>
-      <c r="BU4">
+      <c r="CD4">
+        <v>28</v>
+      </c>
+      <c r="CE4">
         <v>22.3</v>
       </c>
-      <c r="BV4">
+      <c r="CF4">
         <v>35.1</v>
       </c>
-      <c r="BW4">
+      <c r="CG4">
         <v>117</v>
       </c>
-      <c r="BX4">
+      <c r="CH4">
         <v>95</v>
       </c>
-      <c r="BY4">
+      <c r="CI4">
         <v>24.7</v>
       </c>
-      <c r="BZ4">
+      <c r="CJ4">
         <v>19.5</v>
       </c>
-      <c r="CA4">
+      <c r="CK4">
         <v>31.3</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CL4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -8470,71 +8546,71 @@
       <c r="Z5">
         <v>99.5</v>
       </c>
-      <c r="AX5">
-        <v>372</v>
-      </c>
-      <c r="AY5">
-        <v>98.6</v>
-      </c>
-      <c r="AZ5">
-        <v>105</v>
-      </c>
-      <c r="BA5">
-        <v>94</v>
-      </c>
-      <c r="BB5">
-        <v>118</v>
-      </c>
       <c r="BH5">
         <v>372</v>
       </c>
       <c r="BI5">
-        <v>98.9</v>
+        <v>98.6</v>
       </c>
       <c r="BJ5">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="BK5">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="BL5">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="BR5">
         <v>372</v>
       </c>
       <c r="BS5">
+        <v>98.9</v>
+      </c>
+      <c r="BT5">
+        <v>75</v>
+      </c>
+      <c r="BU5">
+        <v>67</v>
+      </c>
+      <c r="BV5">
+        <v>84</v>
+      </c>
+      <c r="CB5">
+        <v>372</v>
+      </c>
+      <c r="CC5">
         <v>98.7</v>
       </c>
-      <c r="BT5">
+      <c r="CD5">
         <v>62</v>
       </c>
-      <c r="BU5">
+      <c r="CE5">
         <v>54</v>
       </c>
-      <c r="BV5">
+      <c r="CF5">
         <v>71</v>
       </c>
-      <c r="BW5">
+      <c r="CG5">
         <v>372</v>
       </c>
-      <c r="BX5">
+      <c r="CH5">
         <v>98.4</v>
       </c>
-      <c r="BY5">
+      <c r="CI5">
         <v>55</v>
       </c>
-      <c r="BZ5">
+      <c r="CJ5">
         <v>48</v>
       </c>
-      <c r="CA5">
+      <c r="CK5">
         <v>63</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CL5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -8604,71 +8680,71 @@
       <c r="Z6">
         <v>100</v>
       </c>
-      <c r="AX6">
-        <v>236</v>
-      </c>
-      <c r="AY6">
-        <v>98.3</v>
-      </c>
-      <c r="AZ6">
-        <v>168</v>
-      </c>
-      <c r="BA6">
-        <v>146</v>
-      </c>
-      <c r="BB6">
-        <v>193</v>
-      </c>
       <c r="BH6">
         <v>236</v>
       </c>
       <c r="BI6">
-        <v>99.1</v>
+        <v>98.3</v>
       </c>
       <c r="BJ6">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="BK6">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="BL6">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="BR6">
         <v>236</v>
       </c>
       <c r="BS6">
+        <v>99.1</v>
+      </c>
+      <c r="BT6">
+        <v>129</v>
+      </c>
+      <c r="BU6">
+        <v>112</v>
+      </c>
+      <c r="BV6">
+        <v>149</v>
+      </c>
+      <c r="CB6">
+        <v>236</v>
+      </c>
+      <c r="CC6">
         <v>99.6</v>
       </c>
-      <c r="BT6">
+      <c r="CD6">
         <v>109</v>
       </c>
-      <c r="BU6">
+      <c r="CE6">
         <v>80</v>
       </c>
-      <c r="BV6">
+      <c r="CF6">
         <v>126</v>
       </c>
-      <c r="BW6">
+      <c r="CG6">
         <v>236</v>
       </c>
-      <c r="BX6">
+      <c r="CH6">
         <v>99.6</v>
       </c>
-      <c r="BY6">
+      <c r="CI6">
         <v>93</v>
       </c>
-      <c r="BZ6">
+      <c r="CJ6">
         <v>80</v>
       </c>
-      <c r="CA6">
+      <c r="CK6">
         <v>109</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CL6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -8738,35 +8814,20 @@
       <c r="Z7">
         <v>99.2</v>
       </c>
-      <c r="AX7">
-        <v>269</v>
-      </c>
-      <c r="AY7">
-        <v>99.2</v>
-      </c>
-      <c r="AZ7">
-        <v>230</v>
-      </c>
-      <c r="BA7">
-        <v>201</v>
-      </c>
-      <c r="BB7">
-        <v>263</v>
-      </c>
       <c r="BH7">
         <v>269</v>
       </c>
       <c r="BI7">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="BJ7">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="BK7">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="BL7">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="BR7">
         <v>269</v>
@@ -8775,34 +8836,49 @@
         <v>99.6</v>
       </c>
       <c r="BT7">
+        <v>196</v>
+      </c>
+      <c r="BU7">
+        <v>170</v>
+      </c>
+      <c r="BV7">
+        <v>226</v>
+      </c>
+      <c r="CB7">
+        <v>269</v>
+      </c>
+      <c r="CC7">
+        <v>99.6</v>
+      </c>
+      <c r="CD7">
         <v>209</v>
       </c>
-      <c r="BU7">
+      <c r="CE7">
         <v>150</v>
       </c>
-      <c r="BV7">
+      <c r="CF7">
         <v>244</v>
       </c>
-      <c r="BW7">
+      <c r="CG7">
         <v>269</v>
       </c>
-      <c r="BX7">
+      <c r="CH7">
         <v>99.6</v>
       </c>
-      <c r="BY7">
+      <c r="CI7">
         <v>175</v>
       </c>
-      <c r="BZ7">
+      <c r="CJ7">
         <v>150</v>
       </c>
-      <c r="CA7">
+      <c r="CK7">
         <v>205</v>
       </c>
-      <c r="CB7" t="s">
+      <c r="CL7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -8863,35 +8939,35 @@
       <c r="V8">
         <v>38.9</v>
       </c>
-      <c r="AX8">
-        <v>132</v>
-      </c>
-      <c r="AZ8">
-        <v>4.5</v>
-      </c>
-      <c r="BA8">
-        <v>3.7</v>
-      </c>
-      <c r="BB8">
-        <v>5.5</v>
-      </c>
       <c r="BH8">
         <v>132</v>
       </c>
       <c r="BJ8">
+        <v>4.5</v>
+      </c>
+      <c r="BK8">
+        <v>3.7</v>
+      </c>
+      <c r="BL8">
+        <v>5.5</v>
+      </c>
+      <c r="BR8">
+        <v>132</v>
+      </c>
+      <c r="BT8">
         <v>3.9</v>
       </c>
-      <c r="BK8">
+      <c r="BU8">
         <v>3.2</v>
       </c>
-      <c r="BL8">
+      <c r="BV8">
         <v>4.8</v>
       </c>
-      <c r="CB8" t="s">
+      <c r="CL8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -8952,35 +9028,35 @@
       <c r="V9">
         <v>65.099999999999994</v>
       </c>
-      <c r="AX9">
-        <v>372</v>
-      </c>
-      <c r="AZ9">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="BA9">
-        <v>8.6</v>
-      </c>
-      <c r="BB9">
-        <v>11</v>
-      </c>
       <c r="BH9">
         <v>372</v>
       </c>
       <c r="BJ9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BK9">
+        <v>8.6</v>
+      </c>
+      <c r="BL9">
+        <v>11</v>
+      </c>
+      <c r="BR9">
+        <v>372</v>
+      </c>
+      <c r="BT9">
         <v>6.9</v>
       </c>
-      <c r="BK9">
+      <c r="BU9">
         <v>6.2</v>
       </c>
-      <c r="BL9">
+      <c r="BV9">
         <v>7.8</v>
       </c>
-      <c r="CB9" t="s">
+      <c r="CL9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -9041,35 +9117,35 @@
       <c r="V10">
         <v>127</v>
       </c>
-      <c r="AX10">
-        <v>236</v>
-      </c>
-      <c r="AZ10">
-        <v>17</v>
-      </c>
-      <c r="BA10">
-        <v>15</v>
-      </c>
-      <c r="BB10">
-        <v>20</v>
-      </c>
       <c r="BH10">
         <v>236</v>
       </c>
       <c r="BJ10">
+        <v>17</v>
+      </c>
+      <c r="BK10">
+        <v>15</v>
+      </c>
+      <c r="BL10">
+        <v>20</v>
+      </c>
+      <c r="BR10">
+        <v>236</v>
+      </c>
+      <c r="BT10">
         <v>11</v>
       </c>
-      <c r="BK10">
+      <c r="BU10">
         <v>9.4</v>
       </c>
-      <c r="BL10">
+      <c r="BV10">
         <v>13</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CL10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -9130,35 +9206,35 @@
       <c r="V11">
         <v>142</v>
       </c>
-      <c r="AX11">
-        <v>269</v>
-      </c>
-      <c r="AZ11">
-        <v>22</v>
-      </c>
-      <c r="BA11">
-        <v>20</v>
-      </c>
-      <c r="BB11">
-        <v>25</v>
-      </c>
       <c r="BH11">
         <v>269</v>
       </c>
       <c r="BJ11">
+        <v>22</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
+      </c>
+      <c r="BL11">
+        <v>25</v>
+      </c>
+      <c r="BR11">
+        <v>269</v>
+      </c>
+      <c r="BT11">
         <v>18</v>
       </c>
-      <c r="BK11">
-        <v>15</v>
-      </c>
-      <c r="BL11">
+      <c r="BU11">
+        <v>15</v>
+      </c>
+      <c r="BV11">
         <v>20</v>
       </c>
-      <c r="CB11" t="s">
+      <c r="CL11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>210</v>
       </c>
@@ -9279,41 +9355,41 @@
       <c r="AW12">
         <v>0.4</v>
       </c>
-      <c r="BH12">
+      <c r="BR12">
         <v>221</v>
       </c>
-      <c r="BI12">
+      <c r="BS12">
         <v>86.4</v>
       </c>
-      <c r="BJ12">
+      <c r="BT12">
         <v>48</v>
       </c>
-      <c r="BK12">
+      <c r="BU12">
         <v>40</v>
       </c>
-      <c r="BL12">
+      <c r="BV12">
         <v>58</v>
       </c>
-      <c r="BM12">
+      <c r="BW12">
         <v>204</v>
       </c>
-      <c r="BN12">
+      <c r="BX12">
         <v>8.3000000000000007</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BY12" t="s">
         <v>119</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BZ12" t="s">
         <v>119</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="CA12" t="s">
         <v>119</v>
       </c>
-      <c r="CB12" t="s">
+      <c r="CL12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
@@ -9407,11 +9483,11 @@
       <c r="AS13">
         <v>12.2</v>
       </c>
-      <c r="CB13" t="s">
+      <c r="CL13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -9506,7 +9582,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>236</v>
       </c>
@@ -9627,38 +9703,38 @@
       <c r="AW15">
         <v>2</v>
       </c>
-      <c r="AX15">
+      <c r="BH15">
         <v>639</v>
       </c>
-      <c r="AY15">
+      <c r="BI15">
         <v>94</v>
       </c>
-      <c r="AZ15">
+      <c r="BJ15">
         <v>22.9</v>
       </c>
-      <c r="BA15">
+      <c r="BK15">
         <v>20.8</v>
       </c>
-      <c r="BB15">
+      <c r="BL15">
         <v>25.1</v>
       </c>
-      <c r="BC15">
+      <c r="BM15">
         <v>358</v>
       </c>
-      <c r="BD15">
+      <c r="BN15">
         <v>11</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BO15" t="s">
         <v>209</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BP15" t="s">
         <v>209</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BQ15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>236</v>
       </c>
@@ -9779,38 +9855,38 @@
       <c r="AW16">
         <v>2</v>
       </c>
-      <c r="AX16">
+      <c r="BH16">
         <v>639</v>
       </c>
-      <c r="AY16">
+      <c r="BI16">
         <v>99</v>
       </c>
-      <c r="AZ16">
+      <c r="BJ16">
         <v>241</v>
       </c>
-      <c r="BA16">
+      <c r="BK16">
         <v>220</v>
       </c>
-      <c r="BB16">
+      <c r="BL16">
         <v>264</v>
       </c>
-      <c r="BC16">
+      <c r="BM16">
         <v>358</v>
       </c>
-      <c r="BD16">
+      <c r="BN16">
         <v>11</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BO16" t="s">
         <v>119</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BP16" t="s">
         <v>119</v>
       </c>
-      <c r="BG16">
+      <c r="BQ16">
         <v>9.4</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>236</v>
       </c>
@@ -9919,38 +9995,38 @@
       <c r="AW17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AX17">
+      <c r="BH17">
         <v>76</v>
       </c>
-      <c r="AY17">
+      <c r="BI17">
         <v>73.7</v>
       </c>
-      <c r="AZ17">
+      <c r="BJ17">
         <v>7.4</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BK17" t="s">
         <v>209</v>
       </c>
-      <c r="BB17">
+      <c r="BL17">
         <v>12.5</v>
       </c>
-      <c r="BC17">
+      <c r="BM17">
         <v>57</v>
       </c>
-      <c r="BD17">
+      <c r="BN17">
         <v>3.5</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BO17" t="s">
         <v>209</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BP17" t="s">
         <v>209</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BQ17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>236</v>
       </c>
@@ -10056,38 +10132,38 @@
       <c r="AS18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AX18">
+      <c r="BH18">
         <v>220</v>
       </c>
-      <c r="AY18">
+      <c r="BI18">
         <v>95</v>
       </c>
-      <c r="AZ18">
+      <c r="BJ18">
         <v>19.899999999999999</v>
       </c>
-      <c r="BA18">
+      <c r="BK18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BB18">
+      <c r="BL18">
         <v>39.9</v>
       </c>
-      <c r="BC18">
+      <c r="BM18">
         <v>110</v>
       </c>
-      <c r="BD18">
+      <c r="BN18">
         <v>5.5</v>
       </c>
-      <c r="BE18" s="4" t="s">
+      <c r="BO18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BF18" s="4" t="s">
+      <c r="BP18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BG18" s="4" t="s">
+      <c r="BQ18" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -10193,38 +10269,38 @@
       <c r="AS19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AX19">
+      <c r="BH19">
         <v>343</v>
       </c>
-      <c r="AY19">
+      <c r="BI19">
         <v>98</v>
       </c>
-      <c r="AZ19">
+      <c r="BJ19">
         <v>36.6</v>
       </c>
-      <c r="BA19">
+      <c r="BK19">
         <v>17.600000000000001</v>
       </c>
-      <c r="BB19">
+      <c r="BL19">
         <v>74.599999999999994</v>
       </c>
-      <c r="BC19">
+      <c r="BM19">
         <v>191</v>
       </c>
-      <c r="BD19">
+      <c r="BN19">
         <v>17.3</v>
       </c>
-      <c r="BE19" s="4" t="s">
+      <c r="BO19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BF19" s="4" t="s">
+      <c r="BP19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BG19" s="4" t="s">
+      <c r="BQ19" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>236</v>
       </c>
@@ -10330,38 +10406,38 @@
       <c r="AS20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AX20">
+      <c r="BH20">
         <v>76</v>
       </c>
-      <c r="AY20">
+      <c r="BI20">
         <v>98.7</v>
       </c>
-      <c r="AZ20">
+      <c r="BJ20">
         <v>90</v>
       </c>
-      <c r="BA20">
+      <c r="BK20">
         <v>49</v>
       </c>
-      <c r="BB20">
+      <c r="BL20">
         <v>135</v>
       </c>
-      <c r="BC20">
+      <c r="BM20">
         <v>57</v>
       </c>
-      <c r="BD20">
+      <c r="BN20">
         <v>10.5</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BO20" t="s">
         <v>119</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BP20" t="s">
         <v>119</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BQ20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>236</v>
       </c>
@@ -10467,38 +10543,38 @@
       <c r="AS21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AX21">
+      <c r="BH21">
         <v>220</v>
       </c>
-      <c r="AY21">
+      <c r="BI21">
         <v>98.2</v>
       </c>
-      <c r="AZ21">
+      <c r="BJ21">
         <v>174</v>
       </c>
-      <c r="BA21">
+      <c r="BK21">
         <v>92</v>
       </c>
-      <c r="BB21">
+      <c r="BL21">
         <v>409</v>
       </c>
-      <c r="BC21">
+      <c r="BM21">
         <v>110</v>
       </c>
-      <c r="BD21">
+      <c r="BN21">
         <v>10</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BO21" t="s">
         <v>119</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BP21" t="s">
         <v>119</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BQ21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>236</v>
       </c>
@@ -10604,38 +10680,38 @@
       <c r="AS22">
         <v>22.7</v>
       </c>
-      <c r="AX22">
+      <c r="BH22">
         <v>343</v>
       </c>
-      <c r="AY22">
+      <c r="BI22">
         <v>99.7</v>
       </c>
-      <c r="AZ22">
+      <c r="BJ22">
         <v>382</v>
       </c>
-      <c r="BA22">
+      <c r="BK22">
         <v>162</v>
       </c>
-      <c r="BB22">
+      <c r="BL22">
         <v>794</v>
       </c>
-      <c r="BC22">
+      <c r="BM22">
         <v>191</v>
       </c>
-      <c r="BD22">
+      <c r="BN22">
         <v>41.4</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BO22" t="s">
         <v>119</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BP22" t="s">
         <v>119</v>
       </c>
-      <c r="BG22">
+      <c r="BQ22">
         <v>21.3</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>249</v>
       </c>
@@ -10702,20 +10778,20 @@
       <c r="AI23">
         <v>99</v>
       </c>
-      <c r="BH23">
+      <c r="BR23">
         <v>56</v>
       </c>
-      <c r="BJ23">
+      <c r="BT23">
         <v>64</v>
       </c>
-      <c r="BK23">
+      <c r="BU23">
         <v>58</v>
       </c>
-      <c r="BL23">
+      <c r="BV23">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>249</v>
       </c>
@@ -10782,20 +10858,20 @@
       <c r="AI24">
         <v>94.4</v>
       </c>
-      <c r="BH24">
+      <c r="BR24">
         <v>39</v>
       </c>
-      <c r="BJ24">
+      <c r="BT24">
         <v>32</v>
       </c>
-      <c r="BK24">
+      <c r="BU24">
         <v>23</v>
       </c>
-      <c r="BL24">
+      <c r="BV24">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>249</v>
       </c>
@@ -10862,20 +10938,20 @@
       <c r="AI25">
         <v>99.3</v>
       </c>
-      <c r="BH25">
+      <c r="BR25">
         <v>114</v>
       </c>
-      <c r="BJ25">
+      <c r="BT25">
         <v>84</v>
       </c>
-      <c r="BK25">
+      <c r="BU25">
         <v>71</v>
       </c>
-      <c r="BL25">
+      <c r="BV25">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>249</v>
       </c>
@@ -10942,20 +11018,20 @@
       <c r="AI26">
         <v>95.2</v>
       </c>
-      <c r="BH26">
+      <c r="BR26">
         <v>87</v>
       </c>
-      <c r="BJ26">
+      <c r="BT26">
         <v>48</v>
       </c>
-      <c r="BK26">
+      <c r="BU26">
         <v>39</v>
       </c>
-      <c r="BL26">
+      <c r="BV26">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>249</v>
       </c>
@@ -11022,20 +11098,20 @@
       <c r="AI27">
         <v>91.9</v>
       </c>
-      <c r="BH27">
+      <c r="BR27">
         <v>73</v>
       </c>
-      <c r="BJ27">
+      <c r="BT27">
         <v>82</v>
       </c>
-      <c r="BK27">
+      <c r="BU27">
         <v>67</v>
       </c>
-      <c r="BL27">
+      <c r="BV27">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>249</v>
       </c>
@@ -11102,20 +11178,20 @@
       <c r="AI28">
         <v>88.8</v>
       </c>
-      <c r="BH28">
+      <c r="BR28">
         <v>71</v>
       </c>
-      <c r="BJ28">
+      <c r="BT28">
         <v>53</v>
       </c>
-      <c r="BK28">
+      <c r="BU28">
         <v>41</v>
       </c>
-      <c r="BL28">
+      <c r="BV28">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>249</v>
       </c>
@@ -11182,20 +11258,20 @@
       <c r="AI29">
         <v>97.8</v>
       </c>
-      <c r="BH29">
+      <c r="BR29">
         <v>105</v>
       </c>
-      <c r="BJ29">
+      <c r="BT29">
         <v>45</v>
       </c>
-      <c r="BK29">
+      <c r="BU29">
         <v>37</v>
       </c>
-      <c r="BL29">
+      <c r="BV29">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>249</v>
       </c>
@@ -11262,20 +11338,20 @@
       <c r="AI30">
         <v>98.2</v>
       </c>
-      <c r="BH30">
+      <c r="BR30">
         <v>115</v>
       </c>
-      <c r="BJ30">
+      <c r="BT30">
         <v>51</v>
       </c>
-      <c r="BK30">
+      <c r="BU30">
         <v>42</v>
       </c>
-      <c r="BL30">
+      <c r="BV30">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -11289,7 +11365,7 @@
         <v>240</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>252</v>
@@ -11313,35 +11389,47 @@
         <v>175</v>
       </c>
       <c r="M31">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="O31">
-        <v>82</v>
+        <v>10.4</v>
       </c>
       <c r="P31">
-        <v>73</v>
+        <v>9.6</v>
       </c>
       <c r="Q31">
-        <v>92</v>
+        <v>11.3</v>
       </c>
       <c r="AA31">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="AC31">
-        <v>1685</v>
+        <v>1293</v>
       </c>
       <c r="AD31">
-        <v>1468</v>
+        <v>1153</v>
       </c>
       <c r="AE31">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
+        <v>1449</v>
+      </c>
+      <c r="BH31">
+        <v>212</v>
+      </c>
+      <c r="BJ31">
+        <v>93</v>
+      </c>
+      <c r="BK31">
+        <v>81</v>
+      </c>
+      <c r="BL31">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>250</v>
       </c>
       <c r="C32" t="s">
@@ -11351,7 +11439,7 @@
         <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>252</v>
@@ -11375,31 +11463,43 @@
         <v>175</v>
       </c>
       <c r="M32">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="O32">
-        <v>46</v>
+        <v>11.6</v>
       </c>
       <c r="P32">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>12.9</v>
       </c>
       <c r="AA32">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="AC32">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AD32">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="AE32">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="BH32">
+        <v>194</v>
+      </c>
+      <c r="BJ32">
+        <v>52</v>
+      </c>
+      <c r="BK32">
+        <v>43</v>
+      </c>
+      <c r="BL32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>249</v>
       </c>
@@ -11413,7 +11513,7 @@
         <v>240</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>252</v>
@@ -11437,31 +11537,1021 @@
         <v>175</v>
       </c>
       <c r="M33">
+        <v>307</v>
+      </c>
+      <c r="O33">
+        <v>9.5</v>
+      </c>
+      <c r="P33">
+        <v>9</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="AA33">
+        <v>307</v>
+      </c>
+      <c r="AC33">
+        <v>1937</v>
+      </c>
+      <c r="AD33">
+        <v>1785</v>
+      </c>
+      <c r="AE33">
+        <v>2103</v>
+      </c>
+      <c r="BH33">
+        <v>122</v>
+      </c>
+      <c r="BJ33">
+        <v>59</v>
+      </c>
+      <c r="BK33">
+        <v>49</v>
+      </c>
+      <c r="BL33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" t="s">
+        <v>175</v>
+      </c>
+      <c r="M34">
+        <v>243</v>
+      </c>
+      <c r="O34">
+        <v>82</v>
+      </c>
+      <c r="P34">
+        <v>73</v>
+      </c>
+      <c r="Q34">
+        <v>92</v>
+      </c>
+      <c r="AA34">
+        <v>175</v>
+      </c>
+      <c r="AC34">
+        <v>1685</v>
+      </c>
+      <c r="AD34">
+        <v>1468</v>
+      </c>
+      <c r="AE34">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>175</v>
+      </c>
+      <c r="M35">
+        <v>197</v>
+      </c>
+      <c r="O35">
+        <v>46</v>
+      </c>
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>53</v>
+      </c>
+      <c r="AA35">
+        <v>57</v>
+      </c>
+      <c r="AC35">
+        <v>446</v>
+      </c>
+      <c r="AD35">
+        <v>313</v>
+      </c>
+      <c r="AE35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>175</v>
+      </c>
+      <c r="M36">
         <v>220</v>
       </c>
-      <c r="O33">
+      <c r="O36">
         <v>49</v>
       </c>
-      <c r="P33">
+      <c r="P36">
         <v>43</v>
       </c>
-      <c r="Q33">
+      <c r="Q36">
         <v>56</v>
       </c>
-      <c r="AA33">
+      <c r="AA36">
         <v>187</v>
       </c>
-      <c r="AC33">
+      <c r="AC36">
         <v>1722</v>
       </c>
-      <c r="AD33">
+      <c r="AD36">
         <v>1503</v>
       </c>
-      <c r="AE33">
+      <c r="AE36">
         <v>1972</v>
       </c>
     </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37">
+        <v>1999</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>171</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="O37">
+        <v>9.6</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>21</v>
+      </c>
+      <c r="AA37">
+        <v>22</v>
+      </c>
+      <c r="AC37">
+        <v>465</v>
+      </c>
+      <c r="AD37">
+        <v>293</v>
+      </c>
+      <c r="AE37">
+        <v>894</v>
+      </c>
+      <c r="BC37">
+        <v>22</v>
+      </c>
+      <c r="BE37">
+        <v>119</v>
+      </c>
+      <c r="BF37">
+        <v>53</v>
+      </c>
+      <c r="BG37">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38">
+        <v>1999</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="O38">
+        <v>0.2</v>
+      </c>
+      <c r="P38">
+        <v>0.1</v>
+      </c>
+      <c r="Q38">
+        <v>0.3</v>
+      </c>
+      <c r="AA38">
+        <v>22</v>
+      </c>
+      <c r="AC38">
+        <v>8.9</v>
+      </c>
+      <c r="AD38">
+        <v>1.9</v>
+      </c>
+      <c r="AE38">
+        <v>18</v>
+      </c>
+      <c r="BC38">
+        <v>22</v>
+      </c>
+      <c r="BE38">
+        <v>5</v>
+      </c>
+      <c r="BF38">
+        <v>1.2</v>
+      </c>
+      <c r="BG38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39">
+        <v>1999</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>171</v>
+      </c>
+      <c r="M39">
+        <v>55</v>
+      </c>
+      <c r="O39">
+        <v>0.7</v>
+      </c>
+      <c r="P39">
+        <v>0.2</v>
+      </c>
+      <c r="Q39">
+        <v>1.8</v>
+      </c>
+      <c r="AA39">
+        <v>55</v>
+      </c>
+      <c r="AC39">
+        <v>169</v>
+      </c>
+      <c r="AD39">
+        <v>81</v>
+      </c>
+      <c r="AE39">
+        <v>290</v>
+      </c>
+      <c r="BC39">
+        <v>55</v>
+      </c>
+      <c r="BE39">
+        <v>30</v>
+      </c>
+      <c r="BF39">
+        <v>14</v>
+      </c>
+      <c r="BG39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40">
+        <v>1999</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40">
+        <v>55</v>
+      </c>
+      <c r="O40">
+        <v>0.05</v>
+      </c>
+      <c r="P40">
+        <v>0.02</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="AA40">
+        <v>55</v>
+      </c>
+      <c r="AC40">
+        <v>17</v>
+      </c>
+      <c r="AD40">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE40">
+        <v>44</v>
+      </c>
+      <c r="BC40">
+        <v>55</v>
+      </c>
+      <c r="BE40">
+        <v>5</v>
+      </c>
+      <c r="BF40">
+        <v>3.3</v>
+      </c>
+      <c r="BG40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41">
+        <v>1999</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <v>0.44</v>
+      </c>
+      <c r="P41">
+        <v>0.3</v>
+      </c>
+      <c r="Q41">
+        <v>0.6</v>
+      </c>
+      <c r="AA41">
+        <v>50</v>
+      </c>
+      <c r="AC41">
+        <v>19</v>
+      </c>
+      <c r="AD41">
+        <v>7.8</v>
+      </c>
+      <c r="AE41">
+        <v>44</v>
+      </c>
+      <c r="BC41">
+        <v>50</v>
+      </c>
+      <c r="BE41">
+        <v>13</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42">
+        <v>1999</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>0.05</v>
+      </c>
+      <c r="P42">
+        <v>0.03</v>
+      </c>
+      <c r="Q42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA42">
+        <v>50</v>
+      </c>
+      <c r="AC42">
+        <v>2.6</v>
+      </c>
+      <c r="AD42">
+        <v>0.8</v>
+      </c>
+      <c r="AE42">
+        <v>7.6</v>
+      </c>
+      <c r="BC42">
+        <v>50</v>
+      </c>
+      <c r="BE42">
+        <v>2</v>
+      </c>
+      <c r="BF42">
+        <v>0.8</v>
+      </c>
+      <c r="BG42">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43">
+        <v>1999</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>171</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="O43">
+        <v>0.2</v>
+      </c>
+      <c r="P43">
+        <v>0.1</v>
+      </c>
+      <c r="Q43">
+        <v>0.3</v>
+      </c>
+      <c r="AA43">
+        <v>48</v>
+      </c>
+      <c r="AC43">
+        <v>77</v>
+      </c>
+      <c r="AD43">
+        <v>41</v>
+      </c>
+      <c r="AE43">
+        <v>165</v>
+      </c>
+      <c r="AX43">
+        <v>48</v>
+      </c>
+      <c r="AZ43">
+        <v>54</v>
+      </c>
+      <c r="BA43">
+        <v>35</v>
+      </c>
+      <c r="BB43">
+        <v>165</v>
+      </c>
+      <c r="BC43">
+        <v>48</v>
+      </c>
+      <c r="BE43">
+        <v>20</v>
+      </c>
+      <c r="BF43">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BG43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44">
+        <v>1999</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44">
+        <v>48</v>
+      </c>
+      <c r="O44">
+        <v>0.02</v>
+      </c>
+      <c r="P44">
+        <v>0.01</v>
+      </c>
+      <c r="Q44">
+        <v>0.02</v>
+      </c>
+      <c r="AA44">
+        <v>48</v>
+      </c>
+      <c r="AC44">
+        <v>6.2</v>
+      </c>
+      <c r="AD44">
+        <v>2.8</v>
+      </c>
+      <c r="AE44">
+        <v>18</v>
+      </c>
+      <c r="AX44">
+        <v>48</v>
+      </c>
+      <c r="AZ44">
+        <v>4.2</v>
+      </c>
+      <c r="BA44">
+        <v>1.9</v>
+      </c>
+      <c r="BB44">
+        <v>9.9</v>
+      </c>
+      <c r="BC44">
+        <v>48</v>
+      </c>
+      <c r="BE44">
+        <v>3</v>
+      </c>
+      <c r="BF44">
+        <v>1.4</v>
+      </c>
+      <c r="BG44">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45">
+        <v>1999</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45">
+        <v>52</v>
+      </c>
+      <c r="O45">
+        <v>0.2</v>
+      </c>
+      <c r="P45">
+        <v>0.1</v>
+      </c>
+      <c r="Q45">
+        <v>0.2</v>
+      </c>
+      <c r="AA45">
+        <v>52</v>
+      </c>
+      <c r="AC45">
+        <v>70</v>
+      </c>
+      <c r="AD45">
+        <v>37</v>
+      </c>
+      <c r="AE45">
+        <v>126</v>
+      </c>
+      <c r="AX45">
+        <v>52</v>
+      </c>
+      <c r="AZ45">
+        <v>95</v>
+      </c>
+      <c r="BA45">
+        <v>60</v>
+      </c>
+      <c r="BB45">
+        <v>126</v>
+      </c>
+      <c r="BC45">
+        <v>52</v>
+      </c>
+      <c r="BE45">
+        <v>31</v>
+      </c>
+      <c r="BF45">
+        <v>22</v>
+      </c>
+      <c r="BG45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46">
+        <v>1999</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>171</v>
+      </c>
+      <c r="M46">
+        <v>52</v>
+      </c>
+      <c r="O46">
+        <v>0.02</v>
+      </c>
+      <c r="P46">
+        <v>0.01</v>
+      </c>
+      <c r="Q46">
+        <v>0.02</v>
+      </c>
+      <c r="AA46">
+        <v>52</v>
+      </c>
+      <c r="AC46">
+        <v>5.7</v>
+      </c>
+      <c r="AD46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE46">
+        <v>13</v>
+      </c>
+      <c r="AX46">
+        <v>52</v>
+      </c>
+      <c r="AZ46">
+        <v>5</v>
+      </c>
+      <c r="BA46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB46">
+        <v>12</v>
+      </c>
+      <c r="BC46">
+        <v>52</v>
+      </c>
+      <c r="BE46">
+        <v>2.6</v>
+      </c>
+      <c r="BF46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BG46">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{8F314CA9-A3F4-ED42-B525-6DD22C990BB0}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{C3AFD843-E8BC-D748-867C-4238E1D9D42A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/typhoid_vaccine_study_data.xlsx
+++ b/data/typhoid_vaccine_study_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/famulare/git/famulare/typhoid-immune-dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BC6EA-B8DA-DF42-9C1B-37C1EBA13DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7AA06-FDA7-0A41-B411-270E80FA35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20060" yWindow="840" windowWidth="14500" windowHeight="17440" activeTab="2" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
+    <workbookView xWindow="15000" yWindow="840" windowWidth="19560" windowHeight="17440" xr2:uid="{3C28E045-1CB7-C04C-9830-A174AB0F25A4}"/>
   </bookViews>
   <sheets>
     <sheet name="efficacy" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="332">
   <si>
     <t>study</t>
   </si>
@@ -1098,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1109,6 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1446,9 +1447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E976F573-8D26-E847-8FB6-13AA5974A482}">
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6179,8 +6180,8 @@
       <c r="I53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>65</v>
+      <c r="J53" s="10">
+        <v>12</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>11</v>
@@ -6387,8 +6388,8 @@
       <c r="I55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>65</v>
+      <c r="J55" s="10">
+        <v>12</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>11</v>
@@ -6491,8 +6492,8 @@
       <c r="I56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>65</v>
+      <c r="J56" s="10">
+        <v>12</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>11</v>
@@ -6595,8 +6596,8 @@
       <c r="I57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>65</v>
+      <c r="J57" s="10">
+        <v>12</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>11</v>
@@ -6699,8 +6700,8 @@
       <c r="I58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>65</v>
+      <c r="J58" s="10">
+        <v>12</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>11</v>
@@ -6803,8 +6804,8 @@
       <c r="I59" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>65</v>
+      <c r="J59" s="10">
+        <v>12</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>11</v>
@@ -6907,8 +6908,8 @@
       <c r="I60" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>65</v>
+      <c r="J60" s="10">
+        <v>12</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>11</v>
@@ -7821,10 +7822,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149A3A41-8A6C-584E-BBE8-03656533BC7D}">
   <dimension ref="A1:CL46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="BJ6" sqref="BJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12579,8 +12580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F67001-9217-094F-9712-0E917E529FDB}">
   <dimension ref="A1:XFC900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
-      <selection activeCell="B399" sqref="B399"/>
+    <sheetView topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="F578" sqref="F578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
